--- a/diğerişlenmemişma.xlsx
+++ b/diğerişlenmemişma.xlsx
@@ -80,7 +80,7 @@
         <v>42705.0</v>
       </c>
       <c r="B2" t="n">
-        <v>383.0102787848941</v>
+        <v>383.209214223792</v>
       </c>
     </row>
     <row r="3">
@@ -88,7 +88,7 @@
         <v>42736.0</v>
       </c>
       <c r="B3" t="n">
-        <v>382.5493529657343</v>
+        <v>382.18705884951356</v>
       </c>
     </row>
     <row r="4">
@@ -96,7 +96,7 @@
         <v>42767.0</v>
       </c>
       <c r="B4" t="n">
-        <v>385.5323385244355</v>
+        <v>385.18332805655945</v>
       </c>
     </row>
     <row r="5">
@@ -104,7 +104,7 @@
         <v>42795.0</v>
       </c>
       <c r="B5" t="n">
-        <v>383.1320992371872</v>
+        <v>382.54609063432673</v>
       </c>
     </row>
     <row r="6">
@@ -112,7 +112,7 @@
         <v>42826.0</v>
       </c>
       <c r="B6" t="n">
-        <v>381.1716461116689</v>
+        <v>380.1990431132905</v>
       </c>
     </row>
     <row r="7">
@@ -120,7 +120,7 @@
         <v>42856.0</v>
       </c>
       <c r="B7" t="n">
-        <v>386.36502174456825</v>
+        <v>385.8690842903</v>
       </c>
     </row>
     <row r="8">
@@ -128,7 +128,7 @@
         <v>42887.0</v>
       </c>
       <c r="B8" t="n">
-        <v>395.1073171705223</v>
+        <v>395.4470460153651</v>
       </c>
     </row>
     <row r="9">
@@ -136,7 +136,7 @@
         <v>42917.0</v>
       </c>
       <c r="B9" t="n">
-        <v>400.8146118377581</v>
+        <v>401.1155461079147</v>
       </c>
     </row>
     <row r="10">
@@ -144,7 +144,7 @@
         <v>42948.0</v>
       </c>
       <c r="B10" t="n">
-        <v>410.91930647882185</v>
+        <v>411.59997155170123</v>
       </c>
     </row>
     <row r="11">
@@ -152,7 +152,7 @@
         <v>42979.0</v>
       </c>
       <c r="B11" t="n">
-        <v>411.7475574204647</v>
+        <v>412.31910203381904</v>
       </c>
     </row>
     <row r="12">
@@ -160,7 +160,7 @@
         <v>43009.0</v>
       </c>
       <c r="B12" t="n">
-        <v>411.20121481114995</v>
+        <v>411.6485066464186</v>
       </c>
     </row>
     <row r="13">
@@ -168,7 +168,7 @@
         <v>43040.0</v>
       </c>
       <c r="B13" t="n">
-        <v>415.52750156471154</v>
+        <v>415.9134779572539</v>
       </c>
     </row>
     <row r="14">
@@ -176,7 +176,7 @@
         <v>43070.0</v>
       </c>
       <c r="B14" t="n">
-        <v>418.67855356300464</v>
+        <v>418.87802191640867</v>
       </c>
     </row>
     <row r="15">
@@ -184,7 +184,7 @@
         <v>43101.0</v>
       </c>
       <c r="B15" t="n">
-        <v>416.33026081021677</v>
+        <v>415.9598602898116</v>
       </c>
     </row>
     <row r="16">
@@ -192,7 +192,7 @@
         <v>43132.0</v>
       </c>
       <c r="B16" t="n">
-        <v>420.059054891659</v>
+        <v>419.6869236203407</v>
       </c>
     </row>
     <row r="17">
@@ -200,7 +200,7 @@
         <v>43160.0</v>
       </c>
       <c r="B17" t="n">
-        <v>423.2861834933696</v>
+        <v>422.72168536152344</v>
       </c>
     </row>
     <row r="18">
@@ -208,7 +208,7 @@
         <v>43191.0</v>
       </c>
       <c r="B18" t="n">
-        <v>418.0158995721389</v>
+        <v>417.1221436859046</v>
       </c>
     </row>
     <row r="19">
@@ -216,7 +216,7 @@
         <v>43221.0</v>
       </c>
       <c r="B19" t="n">
-        <v>432.24533468048617</v>
+        <v>431.8112603538583</v>
       </c>
     </row>
     <row r="20">
@@ -224,7 +224,7 @@
         <v>43252.0</v>
       </c>
       <c r="B20" t="n">
-        <v>464.8553242834366</v>
+        <v>465.2158458348539</v>
       </c>
     </row>
     <row r="21">
@@ -232,7 +232,7 @@
         <v>43282.0</v>
       </c>
       <c r="B21" t="n">
-        <v>469.80005290848106</v>
+        <v>470.06606889837667</v>
       </c>
     </row>
     <row r="22">
@@ -240,7 +240,7 @@
         <v>43313.0</v>
       </c>
       <c r="B22" t="n">
-        <v>483.8637244801753</v>
+        <v>484.426914554919</v>
       </c>
     </row>
     <row r="23">
@@ -248,7 +248,7 @@
         <v>43344.0</v>
       </c>
       <c r="B23" t="n">
-        <v>504.7922088235322</v>
+        <v>505.27031477638315</v>
       </c>
     </row>
     <row r="24">
@@ -256,7 +256,7 @@
         <v>43374.0</v>
       </c>
       <c r="B24" t="n">
-        <v>519.859428753915</v>
+        <v>520.2700027460074</v>
       </c>
     </row>
     <row r="25">
@@ -264,7 +264,7 @@
         <v>43405.0</v>
       </c>
       <c r="B25" t="n">
-        <v>520.7469904695937</v>
+        <v>521.0903637485817</v>
       </c>
     </row>
     <row r="26">
@@ -272,7 +272,7 @@
         <v>43435.0</v>
       </c>
       <c r="B26" t="n">
-        <v>523.0731924336695</v>
+        <v>523.2504718744573</v>
       </c>
     </row>
     <row r="27">
@@ -280,7 +280,7 @@
         <v>43466.0</v>
       </c>
       <c r="B27" t="n">
-        <v>528.5317254844783</v>
+        <v>528.191320757226</v>
       </c>
     </row>
     <row r="28">
@@ -288,7 +288,7 @@
         <v>43497.0</v>
       </c>
       <c r="B28" t="n">
-        <v>532.8481638433736</v>
+        <v>532.5291481604582</v>
       </c>
     </row>
     <row r="29">
@@ -296,7 +296,7 @@
         <v>43525.0</v>
       </c>
       <c r="B29" t="n">
-        <v>527.3359843382837</v>
+        <v>526.9975263772313</v>
       </c>
     </row>
     <row r="30">
@@ -304,7 +304,7 @@
         <v>43556.0</v>
       </c>
       <c r="B30" t="n">
-        <v>542.7898872105084</v>
+        <v>542.3372816550338</v>
       </c>
     </row>
     <row r="31">
@@ -312,7 +312,7 @@
         <v>43586.0</v>
       </c>
       <c r="B31" t="n">
-        <v>554.6120655481161</v>
+        <v>554.5579094236639</v>
       </c>
     </row>
     <row r="32">
@@ -320,7 +320,7 @@
         <v>43617.0</v>
       </c>
       <c r="B32" t="n">
-        <v>546.3117697845573</v>
+        <v>546.6565976320039</v>
       </c>
     </row>
     <row r="33">
@@ -328,7 +328,7 @@
         <v>43647.0</v>
       </c>
       <c r="B33" t="n">
-        <v>548.9770107816098</v>
+        <v>549.1819602809152</v>
       </c>
     </row>
     <row r="34">
@@ -336,7 +336,7 @@
         <v>43678.0</v>
       </c>
       <c r="B34" t="n">
-        <v>547.415503831418</v>
+        <v>547.7113581524661</v>
       </c>
     </row>
     <row r="35">
@@ -344,7 +344,7 @@
         <v>43709.0</v>
       </c>
       <c r="B35" t="n">
-        <v>545.5221281857356</v>
+        <v>545.544654379935</v>
       </c>
     </row>
     <row r="36">
@@ -352,7 +352,7 @@
         <v>43739.0</v>
       </c>
       <c r="B36" t="n">
-        <v>547.0374511961888</v>
+        <v>546.9773952431048</v>
       </c>
     </row>
     <row r="37">
@@ -360,7 +360,7 @@
         <v>43770.0</v>
       </c>
       <c r="B37" t="n">
-        <v>551.9229067241826</v>
+        <v>551.9241792338275</v>
       </c>
     </row>
     <row r="38">
@@ -368,7 +368,7 @@
         <v>43800.0</v>
       </c>
       <c r="B38" t="n">
-        <v>565.0647000930634</v>
+        <v>565.0356009529654</v>
       </c>
     </row>
     <row r="39">
@@ -376,7 +376,7 @@
         <v>43831.0</v>
       </c>
       <c r="B39" t="n">
-        <v>568.8880315020355</v>
+        <v>568.5637707212551</v>
       </c>
     </row>
     <row r="40">
@@ -384,7 +384,7 @@
         <v>43862.0</v>
       </c>
       <c r="B40" t="n">
-        <v>578.9259309267579</v>
+        <v>578.6899158052082</v>
       </c>
     </row>
     <row r="41">
@@ -392,7 +392,7 @@
         <v>43891.0</v>
       </c>
       <c r="B41" t="n">
-        <v>588.3993540144096</v>
+        <v>588.5378153104175</v>
       </c>
     </row>
     <row r="42">
@@ -400,7 +400,7 @@
         <v>43922.0</v>
       </c>
       <c r="B42" t="n">
-        <v>600.6969073969584</v>
+        <v>600.9529083290608</v>
       </c>
     </row>
     <row r="43">
@@ -408,7 +408,7 @@
         <v>43952.0</v>
       </c>
       <c r="B43" t="n">
-        <v>607.3122950359261</v>
+        <v>607.6528481798418</v>
       </c>
     </row>
     <row r="44">
@@ -416,7 +416,7 @@
         <v>43983.0</v>
       </c>
       <c r="B44" t="n">
-        <v>602.8501089197803</v>
+        <v>603.1333561511404</v>
       </c>
     </row>
     <row r="45">
@@ -424,7 +424,7 @@
         <v>44013.0</v>
       </c>
       <c r="B45" t="n">
-        <v>613.8739571098419</v>
+        <v>614.0234509923483</v>
       </c>
     </row>
     <row r="46">
@@ -432,7 +432,7 @@
         <v>44044.0</v>
       </c>
       <c r="B46" t="n">
-        <v>622.7033310720717</v>
+        <v>622.7441436047405</v>
       </c>
     </row>
     <row r="47">
@@ -440,7 +440,7 @@
         <v>44075.0</v>
       </c>
       <c r="B47" t="n">
-        <v>626.0856198671621</v>
+        <v>625.7129667301383</v>
       </c>
     </row>
     <row r="48">
@@ -448,7 +448,7 @@
         <v>44105.0</v>
       </c>
       <c r="B48" t="n">
-        <v>645.1581326642903</v>
+        <v>644.6843759982181</v>
       </c>
     </row>
     <row r="49">
@@ -456,7 +456,7 @@
         <v>44136.0</v>
       </c>
       <c r="B49" t="n">
-        <v>677.1418307499889</v>
+        <v>676.834610871247</v>
       </c>
     </row>
     <row r="50">
@@ -464,7 +464,7 @@
         <v>44166.0</v>
       </c>
       <c r="B50" t="n">
-        <v>692.2445405009098</v>
+        <v>691.9413721875837</v>
       </c>
     </row>
     <row r="51">
@@ -472,7 +472,7 @@
         <v>44197.0</v>
       </c>
       <c r="B51" t="n">
-        <v>698.8882680182444</v>
+        <v>698.5620804161676</v>
       </c>
     </row>
     <row r="52">
@@ -480,7 +480,7 @@
         <v>44228.0</v>
       </c>
       <c r="B52" t="n">
-        <v>708.4985718634013</v>
+        <v>708.3032219795883</v>
       </c>
     </row>
     <row r="53">
@@ -488,7 +488,7 @@
         <v>44256.0</v>
       </c>
       <c r="B53" t="n">
-        <v>704.5655325160756</v>
+        <v>705.3214978391452</v>
       </c>
     </row>
     <row r="54">
@@ -496,7 +496,7 @@
         <v>44287.0</v>
       </c>
       <c r="B54" t="n">
-        <v>690.8705918277142</v>
+        <v>691.9495058811582</v>
       </c>
     </row>
     <row r="55">
@@ -504,7 +504,7 @@
         <v>44317.0</v>
       </c>
       <c r="B55" t="n">
-        <v>711.4620578297709</v>
+        <v>712.2307959850689</v>
       </c>
     </row>
     <row r="56">
@@ -512,7 +512,7 @@
         <v>44348.0</v>
       </c>
       <c r="B56" t="n">
-        <v>744.2446890149208</v>
+        <v>744.5975032094692</v>
       </c>
     </row>
     <row r="57">
@@ -520,7 +520,7 @@
         <v>44378.0</v>
       </c>
       <c r="B57" t="n">
-        <v>770.41968359409</v>
+        <v>770.5841580043221</v>
       </c>
     </row>
     <row r="58">
@@ -528,7 +528,7 @@
         <v>44409.0</v>
       </c>
       <c r="B58" t="n">
-        <v>801.1030493996336</v>
+        <v>800.8538024370525</v>
       </c>
     </row>
     <row r="59">
@@ -536,7 +536,7 @@
         <v>44440.0</v>
       </c>
       <c r="B59" t="n">
-        <v>823.2772973133965</v>
+        <v>822.466689217747</v>
       </c>
     </row>
     <row r="60">
@@ -544,7 +544,7 @@
         <v>44470.0</v>
       </c>
       <c r="B60" t="n">
-        <v>843.5139995097039</v>
+        <v>842.4157755975963</v>
       </c>
     </row>
     <row r="61">
@@ -552,7 +552,7 @@
         <v>44501.0</v>
       </c>
       <c r="B61" t="n">
-        <v>890.4411137349158</v>
+        <v>889.2315191437403</v>
       </c>
     </row>
     <row r="62">
@@ -560,7 +560,7 @@
         <v>44531.0</v>
       </c>
       <c r="B62" t="n">
-        <v>1056.3320565308177</v>
+        <v>1054.83410164432</v>
       </c>
     </row>
     <row r="63">
@@ -568,7 +568,7 @@
         <v>44562.0</v>
       </c>
       <c r="B63" t="n">
-        <v>1122.8952953007285</v>
+        <v>1121.910071604644</v>
       </c>
     </row>
     <row r="64">
@@ -576,7 +576,7 @@
         <v>44593.0</v>
       </c>
       <c r="B64" t="n">
-        <v>1147.5042716081919</v>
+        <v>1146.8958581853383</v>
       </c>
     </row>
     <row r="65">
@@ -584,7 +584,7 @@
         <v>44621.0</v>
       </c>
       <c r="B65" t="n">
-        <v>1222.751226224523</v>
+        <v>1225.1074252312105</v>
       </c>
     </row>
     <row r="66">
@@ -592,7 +592,7 @@
         <v>44652.0</v>
       </c>
       <c r="B66" t="n">
-        <v>1351.0598550736274</v>
+        <v>1355.3727931023056</v>
       </c>
     </row>
     <row r="67">
@@ -600,7 +600,7 @@
         <v>44682.0</v>
       </c>
       <c r="B67" t="n">
-        <v>1408.2000233848194</v>
+        <v>1411.130454269448</v>
       </c>
     </row>
     <row r="68">
@@ -608,7 +608,7 @@
         <v>44713.0</v>
       </c>
       <c r="B68" t="n">
-        <v>1474.193392913565</v>
+        <v>1475.250845251056</v>
       </c>
     </row>
     <row r="69">
@@ -616,7 +616,7 @@
         <v>44743.0</v>
       </c>
       <c r="B69" t="n">
-        <v>1523.552796539014</v>
+        <v>1524.1050143495138</v>
       </c>
     </row>
     <row r="70">
@@ -624,7 +624,7 @@
         <v>44774.0</v>
       </c>
       <c r="B70" t="n">
-        <v>1565.5226420908327</v>
+        <v>1564.6377751073226</v>
       </c>
     </row>
     <row r="71">
@@ -632,7 +632,7 @@
         <v>44805.0</v>
       </c>
       <c r="B71" t="n">
-        <v>1604.9352830446298</v>
+        <v>1603.249179247335</v>
       </c>
     </row>
     <row r="72">
@@ -640,7 +640,7 @@
         <v>44835.0</v>
       </c>
       <c r="B72" t="n">
-        <v>1683.3969990383937</v>
+        <v>1681.054266315966</v>
       </c>
     </row>
     <row r="73">
@@ -648,7 +648,7 @@
         <v>44866.0</v>
       </c>
       <c r="B73" t="n">
-        <v>1744.5181525939624</v>
+        <v>1741.0225874459275</v>
       </c>
     </row>
     <row r="74">
@@ -656,7 +656,7 @@
         <v>44896.0</v>
       </c>
       <c r="B74" t="n">
-        <v>1806.675336738718</v>
+        <v>1802.4706795809182</v>
       </c>
     </row>
     <row r="75">
@@ -664,7 +664,7 @@
         <v>44927.0</v>
       </c>
       <c r="B75" t="n">
-        <v>1973.594263109312</v>
+        <v>1970.6485971303932</v>
       </c>
     </row>
     <row r="76">
@@ -672,7 +672,7 @@
         <v>44958.0</v>
       </c>
       <c r="B76" t="n">
-        <v>2100.308001705842</v>
+        <v>2098.979480507529</v>
       </c>
     </row>
     <row r="77">
@@ -680,7 +680,7 @@
         <v>44986.0</v>
       </c>
       <c r="B77" t="n">
-        <v>2273.555905208719</v>
+        <v>2279.7111822057755</v>
       </c>
     </row>
     <row r="78">
@@ -688,7 +688,7 @@
         <v>45017.0</v>
       </c>
       <c r="B78" t="n">
-        <v>2416.146833162616</v>
+        <v>2426.120347413638</v>
       </c>
     </row>
     <row r="79">
@@ -696,7 +696,7 @@
         <v>45047.0</v>
       </c>
       <c r="B79" t="n">
-        <v>2491.8113417201994</v>
+        <v>2497.8823473361317</v>
       </c>
     </row>
     <row r="80">
@@ -704,7 +704,7 @@
         <v>45078.0</v>
       </c>
       <c r="B80" t="n">
-        <v>2593.486742644288</v>
+        <v>2594.4728924898227</v>
       </c>
     </row>
     <row r="81">
@@ -712,7 +712,7 @@
         <v>45108.0</v>
       </c>
       <c r="B81" t="n">
-        <v>2776.3402896319562</v>
+        <v>2776.659347703727</v>
       </c>
     </row>
     <row r="82">
@@ -720,7 +720,7 @@
         <v>45139.0</v>
       </c>
       <c r="B82" t="n">
-        <v>2947.5579825467044</v>
+        <v>2944.8902325917584</v>
       </c>
     </row>
     <row r="83">
@@ -728,7 +728,7 @@
         <v>45170.0</v>
       </c>
       <c r="B83" t="n">
-        <v>3110.255622926828</v>
+        <v>3107.683679935614</v>
       </c>
     </row>
     <row r="84">
@@ -736,7 +736,7 @@
         <v>45200.0</v>
       </c>
       <c r="B84" t="n">
-        <v>3335.80654819318</v>
+        <v>3331.910494061389</v>
       </c>
     </row>
     <row r="85">
@@ -744,7 +744,7 @@
         <v>45231.0</v>
       </c>
       <c r="B85" t="n">
-        <v>3411.452102007126</v>
+        <v>3404.4169477763994</v>
       </c>
     </row>
     <row r="86">
@@ -752,7 +752,7 @@
         <v>45261.0</v>
       </c>
       <c r="B86" t="n">
-        <v>3568.2417334286756</v>
+        <v>3559.418245913489</v>
       </c>
     </row>
     <row r="87">
@@ -760,7 +760,7 @@
         <v>45292.0</v>
       </c>
       <c r="B87" t="n">
-        <v>3744.8810574177223</v>
+        <v>3737.959107066234</v>
       </c>
     </row>
     <row r="88">
@@ -768,7 +768,7 @@
         <v>45323.0</v>
       </c>
       <c r="B88" t="n">
-        <v>3970.738401755133</v>
+        <v>3968.2775748167614</v>
       </c>
     </row>
     <row r="89">
@@ -776,7 +776,7 @@
         <v>45352.0</v>
       </c>
       <c r="B89" t="n">
-        <v>4202.276632429991</v>
+        <v>4215.9377322538985</v>
       </c>
     </row>
     <row r="90">
@@ -784,7 +784,7 @@
         <v>45383.0</v>
       </c>
       <c r="B90" t="n">
-        <v>4297.975918381493</v>
+        <v>4318.037370463868</v>
       </c>
     </row>
     <row r="91">
@@ -792,7 +792,7 @@
         <v>45413.0</v>
       </c>
       <c r="B91" t="n">
-        <v>4347.829894699784</v>
+        <v>4359.95494913927</v>
       </c>
     </row>
     <row r="92">
@@ -800,7 +800,7 @@
         <v>45444.0</v>
       </c>
       <c r="B92" t="n">
-        <v>4314.4081848810265</v>
+        <v>4315.669900794078</v>
       </c>
     </row>
     <row r="93">
@@ -808,7 +808,7 @@
         <v>45474.0</v>
       </c>
       <c r="B93" t="n">
-        <v>4381.13304676965</v>
+        <v>4380.874116925168</v>
       </c>
     </row>
     <row r="94">
@@ -816,7 +816,7 @@
         <v>45505.0</v>
       </c>
       <c r="B94" t="n">
-        <v>4425.60377014671</v>
+        <v>4420.325662480798</v>
       </c>
     </row>
     <row r="95">
@@ -824,7 +824,7 @@
         <v>45536.0</v>
       </c>
       <c r="B95" t="n">
-        <v>4666.038353439758</v>
+        <v>4662.932565482801</v>
       </c>
     </row>
     <row r="96">
@@ -832,7 +832,7 @@
         <v>45566.0</v>
       </c>
       <c r="B96" t="n">
-        <v>4690.970202602234</v>
+        <v>4685.35193250099</v>
       </c>
     </row>
     <row r="97">
@@ -840,7 +840,7 @@
         <v>45597.0</v>
       </c>
       <c r="B97" t="n">
-        <v>4832.148020498747</v>
+        <v>4822.012522350942</v>
       </c>
     </row>
     <row r="98">
@@ -848,7 +848,7 @@
         <v>45627.0</v>
       </c>
       <c r="B98" t="n">
-        <v>4951.539285717284</v>
+        <v>4939.051607729208</v>
       </c>
     </row>
     <row r="99">
@@ -856,7 +856,7 @@
         <v>45658.0</v>
       </c>
       <c r="B99" t="n">
-        <v>4979.920448696993</v>
+        <v>4968.529099293756</v>
       </c>
     </row>
     <row r="100">
@@ -864,7 +864,7 @@
         <v>45689.0</v>
       </c>
       <c r="B100" t="n">
-        <v>5123.483027106679</v>
+        <v>5085.756279975725</v>
       </c>
     </row>
     <row r="101">
@@ -872,7 +872,7 @@
         <v>45717.0</v>
       </c>
       <c r="B101" t="n">
-        <v>5275.455828950597</v>
+        <v>5169.789292989702</v>
       </c>
     </row>
   </sheetData>

--- a/diğerişlenmemişma.xlsx
+++ b/diğerişlenmemişma.xlsx
@@ -80,7 +80,7 @@
         <v>42705.0</v>
       </c>
       <c r="B2" t="n">
-        <v>383.209214223792</v>
+        <v>382.8016775148072</v>
       </c>
     </row>
     <row r="3">
@@ -88,7 +88,7 @@
         <v>42736.0</v>
       </c>
       <c r="B3" t="n">
-        <v>382.18705884951356</v>
+        <v>381.8281932944002</v>
       </c>
     </row>
     <row r="4">
@@ -96,7 +96,7 @@
         <v>42767.0</v>
       </c>
       <c r="B4" t="n">
-        <v>385.18332805655945</v>
+        <v>384.759142291345</v>
       </c>
     </row>
     <row r="5">
@@ -104,7 +104,7 @@
         <v>42795.0</v>
       </c>
       <c r="B5" t="n">
-        <v>382.54609063432673</v>
+        <v>382.18652707787174</v>
       </c>
     </row>
     <row r="6">
@@ -112,7 +112,7 @@
         <v>42826.0</v>
       </c>
       <c r="B6" t="n">
-        <v>380.1990431132905</v>
+        <v>380.70964108344566</v>
       </c>
     </row>
     <row r="7">
@@ -120,7 +120,7 @@
         <v>42856.0</v>
       </c>
       <c r="B7" t="n">
-        <v>385.8690842903</v>
+        <v>386.5480980072393</v>
       </c>
     </row>
     <row r="8">
@@ -128,7 +128,7 @@
         <v>42887.0</v>
       </c>
       <c r="B8" t="n">
-        <v>395.4470460153651</v>
+        <v>395.82893504948373</v>
       </c>
     </row>
     <row r="9">
@@ -136,7 +136,7 @@
         <v>42917.0</v>
       </c>
       <c r="B9" t="n">
-        <v>401.1155461079147</v>
+        <v>401.3971985591162</v>
       </c>
     </row>
     <row r="10">
@@ -144,7 +144,7 @@
         <v>42948.0</v>
       </c>
       <c r="B10" t="n">
-        <v>411.59997155170123</v>
+        <v>411.6674801344769</v>
       </c>
     </row>
     <row r="11">
@@ -152,7 +152,7 @@
         <v>42979.0</v>
       </c>
       <c r="B11" t="n">
-        <v>412.31910203381904</v>
+        <v>412.2742993176494</v>
       </c>
     </row>
     <row r="12">
@@ -160,7 +160,7 @@
         <v>43009.0</v>
       </c>
       <c r="B12" t="n">
-        <v>411.6485066464186</v>
+        <v>411.4825441456325</v>
       </c>
     </row>
     <row r="13">
@@ -168,7 +168,7 @@
         <v>43040.0</v>
       </c>
       <c r="B13" t="n">
-        <v>415.9134779572539</v>
+        <v>415.59730805355304</v>
       </c>
     </row>
     <row r="14">
@@ -176,7 +176,7 @@
         <v>43070.0</v>
       </c>
       <c r="B14" t="n">
-        <v>418.87802191640867</v>
+        <v>418.43893453532684</v>
       </c>
     </row>
     <row r="15">
@@ -184,7 +184,7 @@
         <v>43101.0</v>
       </c>
       <c r="B15" t="n">
-        <v>415.9598602898116</v>
+        <v>415.5579919784873</v>
       </c>
     </row>
     <row r="16">
@@ -192,7 +192,7 @@
         <v>43132.0</v>
       </c>
       <c r="B16" t="n">
-        <v>419.6869236203407</v>
+        <v>419.2121242965763</v>
       </c>
     </row>
     <row r="17">
@@ -200,7 +200,7 @@
         <v>43160.0</v>
       </c>
       <c r="B17" t="n">
-        <v>422.72168536152344</v>
+        <v>422.290988035856</v>
       </c>
     </row>
     <row r="18">
@@ -208,7 +208,7 @@
         <v>43191.0</v>
       </c>
       <c r="B18" t="n">
-        <v>417.1221436859046</v>
+        <v>417.64569281367585</v>
       </c>
     </row>
     <row r="19">
@@ -216,7 +216,7 @@
         <v>43221.0</v>
       </c>
       <c r="B19" t="n">
-        <v>431.8112603538583</v>
+        <v>432.55435026820373</v>
       </c>
     </row>
     <row r="20">
@@ -224,7 +224,7 @@
         <v>43252.0</v>
       </c>
       <c r="B20" t="n">
-        <v>465.2158458348539</v>
+        <v>465.6847240856815</v>
       </c>
     </row>
     <row r="21">
@@ -232,7 +232,7 @@
         <v>43282.0</v>
       </c>
       <c r="B21" t="n">
-        <v>470.06606889837667</v>
+        <v>470.4241721652231</v>
       </c>
     </row>
     <row r="22">
@@ -240,7 +240,7 @@
         <v>43313.0</v>
       </c>
       <c r="B22" t="n">
-        <v>484.426914554919</v>
+        <v>484.5684515981795</v>
       </c>
     </row>
     <row r="23">
@@ -248,7 +248,7 @@
         <v>43344.0</v>
       </c>
       <c r="B23" t="n">
-        <v>505.27031477638315</v>
+        <v>505.2714394858549</v>
       </c>
     </row>
     <row r="24">
@@ -256,7 +256,7 @@
         <v>43374.0</v>
       </c>
       <c r="B24" t="n">
-        <v>520.2700027460074</v>
+        <v>520.0989038768363</v>
       </c>
     </row>
     <row r="25">
@@ -264,7 +264,7 @@
         <v>43405.0</v>
       </c>
       <c r="B25" t="n">
-        <v>521.0903637485817</v>
+        <v>520.7285163889501</v>
       </c>
     </row>
     <row r="26">
@@ -272,7 +272,7 @@
         <v>43435.0</v>
       </c>
       <c r="B26" t="n">
-        <v>523.2504718744573</v>
+        <v>522.7113224852145</v>
       </c>
     </row>
     <row r="27">
@@ -280,7 +280,7 @@
         <v>43466.0</v>
       </c>
       <c r="B27" t="n">
-        <v>528.191320757226</v>
+        <v>527.6280999530668</v>
       </c>
     </row>
     <row r="28">
@@ -288,7 +288,7 @@
         <v>43497.0</v>
       </c>
       <c r="B28" t="n">
-        <v>532.5291481604582</v>
+        <v>531.8600642321072</v>
       </c>
     </row>
     <row r="29">
@@ -296,7 +296,7 @@
         <v>43525.0</v>
       </c>
       <c r="B29" t="n">
-        <v>526.9975263772313</v>
+        <v>526.3420100875073</v>
       </c>
     </row>
     <row r="30">
@@ -304,7 +304,7 @@
         <v>43556.0</v>
       </c>
       <c r="B30" t="n">
-        <v>542.3372816550338</v>
+        <v>542.8655098373546</v>
       </c>
     </row>
     <row r="31">
@@ -312,7 +312,7 @@
         <v>43586.0</v>
       </c>
       <c r="B31" t="n">
-        <v>554.5579094236639</v>
+        <v>555.4283597250181</v>
       </c>
     </row>
     <row r="32">
@@ -320,7 +320,7 @@
         <v>43617.0</v>
       </c>
       <c r="B32" t="n">
-        <v>546.6565976320039</v>
+        <v>547.2562741851891</v>
       </c>
     </row>
     <row r="33">
@@ -328,7 +328,7 @@
         <v>43647.0</v>
       </c>
       <c r="B33" t="n">
-        <v>549.1819602809152</v>
+        <v>549.6468741063516</v>
       </c>
     </row>
     <row r="34">
@@ -336,7 +336,7 @@
         <v>43678.0</v>
       </c>
       <c r="B34" t="n">
-        <v>547.7113581524661</v>
+        <v>547.9670187886599</v>
       </c>
     </row>
     <row r="35">
@@ -344,7 +344,7 @@
         <v>43709.0</v>
       </c>
       <c r="B35" t="n">
-        <v>545.544654379935</v>
+        <v>545.6695533204353</v>
       </c>
     </row>
     <row r="36">
@@ -352,7 +352,7 @@
         <v>43739.0</v>
       </c>
       <c r="B36" t="n">
-        <v>546.9773952431048</v>
+        <v>546.9135197366703</v>
       </c>
     </row>
     <row r="37">
@@ -360,7 +360,7 @@
         <v>43770.0</v>
       </c>
       <c r="B37" t="n">
-        <v>551.9241792338275</v>
+        <v>551.6206873868127</v>
       </c>
     </row>
     <row r="38">
@@ -368,7 +368,7 @@
         <v>43800.0</v>
       </c>
       <c r="B38" t="n">
-        <v>565.0356009529654</v>
+        <v>564.4839539895405</v>
       </c>
     </row>
     <row r="39">
@@ -376,7 +376,7 @@
         <v>43831.0</v>
       </c>
       <c r="B39" t="n">
-        <v>568.5637707212551</v>
+        <v>567.9061858906638</v>
       </c>
     </row>
     <row r="40">
@@ -384,7 +384,7 @@
         <v>43862.0</v>
       </c>
       <c r="B40" t="n">
-        <v>578.6899158052082</v>
+        <v>577.8839082067841</v>
       </c>
     </row>
     <row r="41">
@@ -392,7 +392,7 @@
         <v>43891.0</v>
       </c>
       <c r="B41" t="n">
-        <v>588.5378153104175</v>
+        <v>587.6275960654244</v>
       </c>
     </row>
     <row r="42">
@@ -400,7 +400,7 @@
         <v>43922.0</v>
       </c>
       <c r="B42" t="n">
-        <v>600.9529083290608</v>
+        <v>601.3859663667085</v>
       </c>
     </row>
     <row r="43">
@@ -408,7 +408,7 @@
         <v>43952.0</v>
       </c>
       <c r="B43" t="n">
-        <v>607.6528481798418</v>
+        <v>608.5724089930669</v>
       </c>
     </row>
     <row r="44">
@@ -416,7 +416,7 @@
         <v>43983.0</v>
       </c>
       <c r="B44" t="n">
-        <v>603.1333561511404</v>
+        <v>603.8695869249777</v>
       </c>
     </row>
     <row r="45">
@@ -424,7 +424,7 @@
         <v>44013.0</v>
       </c>
       <c r="B45" t="n">
-        <v>614.0234509923483</v>
+        <v>614.6013462073315</v>
       </c>
     </row>
     <row r="46">
@@ -432,7 +432,7 @@
         <v>44044.0</v>
       </c>
       <c r="B46" t="n">
-        <v>622.7441436047405</v>
+        <v>623.1328854699225</v>
       </c>
     </row>
     <row r="47">
@@ -440,7 +440,7 @@
         <v>44075.0</v>
       </c>
       <c r="B47" t="n">
-        <v>625.7129667301383</v>
+        <v>625.9637295747569</v>
       </c>
     </row>
     <row r="48">
@@ -448,7 +448,7 @@
         <v>44105.0</v>
       </c>
       <c r="B48" t="n">
-        <v>644.6843759982181</v>
+        <v>644.7035118505219</v>
       </c>
     </row>
     <row r="49">
@@ -456,7 +456,7 @@
         <v>44136.0</v>
       </c>
       <c r="B49" t="n">
-        <v>676.834610871247</v>
+        <v>676.5205752306339</v>
       </c>
     </row>
     <row r="50">
@@ -464,7 +464,7 @@
         <v>44166.0</v>
       </c>
       <c r="B50" t="n">
-        <v>691.9413721875837</v>
+        <v>691.287371301497</v>
       </c>
     </row>
     <row r="51">
@@ -472,7 +472,7 @@
         <v>44197.0</v>
       </c>
       <c r="B51" t="n">
-        <v>698.5620804161676</v>
+        <v>697.6645072621413</v>
       </c>
     </row>
     <row r="52">
@@ -480,7 +480,7 @@
         <v>44228.0</v>
       </c>
       <c r="B52" t="n">
-        <v>708.3032219795883</v>
+        <v>707.2040927578948</v>
       </c>
     </row>
     <row r="53">
@@ -488,7 +488,7 @@
         <v>44256.0</v>
       </c>
       <c r="B53" t="n">
-        <v>705.3214978391452</v>
+        <v>704.0002819673537</v>
       </c>
     </row>
     <row r="54">
@@ -496,7 +496,7 @@
         <v>44287.0</v>
       </c>
       <c r="B54" t="n">
-        <v>691.9495058811582</v>
+        <v>692.3080752012024</v>
       </c>
     </row>
     <row r="55">
@@ -504,7 +504,7 @@
         <v>44317.0</v>
       </c>
       <c r="B55" t="n">
-        <v>712.2307959850689</v>
+        <v>713.3205196330113</v>
       </c>
     </row>
     <row r="56">
@@ -512,7 +512,7 @@
         <v>44348.0</v>
       </c>
       <c r="B56" t="n">
-        <v>744.5975032094692</v>
+        <v>745.5948032736139</v>
       </c>
     </row>
     <row r="57">
@@ -520,7 +520,7 @@
         <v>44378.0</v>
       </c>
       <c r="B57" t="n">
-        <v>770.5841580043221</v>
+        <v>771.3840880912051</v>
       </c>
     </row>
     <row r="58">
@@ -528,7 +528,7 @@
         <v>44409.0</v>
       </c>
       <c r="B58" t="n">
-        <v>800.8538024370525</v>
+        <v>801.4749462815003</v>
       </c>
     </row>
     <row r="59">
@@ -536,7 +536,7 @@
         <v>44440.0</v>
       </c>
       <c r="B59" t="n">
-        <v>822.466689217747</v>
+        <v>822.8946897254889</v>
       </c>
     </row>
     <row r="60">
@@ -544,7 +544,7 @@
         <v>44470.0</v>
       </c>
       <c r="B60" t="n">
-        <v>842.4157755975963</v>
+        <v>842.549281480693</v>
       </c>
     </row>
     <row r="61">
@@ -552,7 +552,7 @@
         <v>44501.0</v>
       </c>
       <c r="B61" t="n">
-        <v>889.2315191437403</v>
+        <v>888.9743959881673</v>
       </c>
     </row>
     <row r="62">
@@ -560,7 +560,7 @@
         <v>44531.0</v>
       </c>
       <c r="B62" t="n">
-        <v>1054.83410164432</v>
+        <v>1053.9886547028077</v>
       </c>
     </row>
     <row r="63">
@@ -568,7 +568,7 @@
         <v>44562.0</v>
       </c>
       <c r="B63" t="n">
-        <v>1121.910071604644</v>
+        <v>1120.418745193749</v>
       </c>
     </row>
     <row r="64">
@@ -576,7 +576,7 @@
         <v>44593.0</v>
       </c>
       <c r="B64" t="n">
-        <v>1146.8958581853383</v>
+        <v>1144.994254199163</v>
       </c>
     </row>
     <row r="65">
@@ -584,7 +584,7 @@
         <v>44621.0</v>
       </c>
       <c r="B65" t="n">
-        <v>1225.1074252312105</v>
+        <v>1222.3688846237526</v>
       </c>
     </row>
     <row r="66">
@@ -592,7 +592,7 @@
         <v>44652.0</v>
       </c>
       <c r="B66" t="n">
-        <v>1355.3727931023056</v>
+        <v>1355.6816825533526</v>
       </c>
     </row>
     <row r="67">
@@ -600,7 +600,7 @@
         <v>44682.0</v>
       </c>
       <c r="B67" t="n">
-        <v>1411.130454269448</v>
+        <v>1413.2220447087655</v>
       </c>
     </row>
     <row r="68">
@@ -608,7 +608,7 @@
         <v>44713.0</v>
       </c>
       <c r="B68" t="n">
-        <v>1475.250845251056</v>
+        <v>1477.3746732211478</v>
       </c>
     </row>
     <row r="69">
@@ -616,7 +616,7 @@
         <v>44743.0</v>
       </c>
       <c r="B69" t="n">
-        <v>1524.1050143495138</v>
+        <v>1525.8093966408444</v>
       </c>
     </row>
     <row r="70">
@@ -624,7 +624,7 @@
         <v>44774.0</v>
       </c>
       <c r="B70" t="n">
-        <v>1564.6377751073226</v>
+        <v>1566.0652009048308</v>
       </c>
     </row>
     <row r="71">
@@ -632,7 +632,7 @@
         <v>44805.0</v>
       </c>
       <c r="B71" t="n">
-        <v>1603.249179247335</v>
+        <v>1604.1584099040201</v>
       </c>
     </row>
     <row r="72">
@@ -640,7 +640,7 @@
         <v>44835.0</v>
       </c>
       <c r="B72" t="n">
-        <v>1681.054266315966</v>
+        <v>1681.3307770817703</v>
       </c>
     </row>
     <row r="73">
@@ -648,7 +648,7 @@
         <v>44866.0</v>
       </c>
       <c r="B73" t="n">
-        <v>1741.0225874459275</v>
+        <v>1740.6779181345146</v>
       </c>
     </row>
     <row r="74">
@@ -656,7 +656,7 @@
         <v>44896.0</v>
       </c>
       <c r="B74" t="n">
-        <v>1802.4706795809182</v>
+        <v>1801.213442627928</v>
       </c>
     </row>
     <row r="75">
@@ -664,7 +664,7 @@
         <v>44927.0</v>
       </c>
       <c r="B75" t="n">
-        <v>1970.6485971303932</v>
+        <v>1967.9731843645602</v>
       </c>
     </row>
     <row r="76">
@@ -672,7 +672,7 @@
         <v>44958.0</v>
       </c>
       <c r="B76" t="n">
-        <v>2098.979480507529</v>
+        <v>2095.119555324046</v>
       </c>
     </row>
     <row r="77">
@@ -680,7 +680,7 @@
         <v>44986.0</v>
       </c>
       <c r="B77" t="n">
-        <v>2279.7111822057755</v>
+        <v>2273.7533883949836</v>
       </c>
     </row>
     <row r="78">
@@ -688,7 +688,7 @@
         <v>45017.0</v>
       </c>
       <c r="B78" t="n">
-        <v>2426.120347413638</v>
+        <v>2426.4447917053762</v>
       </c>
     </row>
     <row r="79">
@@ -696,7 +696,7 @@
         <v>45047.0</v>
       </c>
       <c r="B79" t="n">
-        <v>2497.8823473361317</v>
+        <v>2501.970476631953</v>
       </c>
     </row>
     <row r="80">
@@ -704,7 +704,7 @@
         <v>45078.0</v>
       </c>
       <c r="B80" t="n">
-        <v>2594.4728924898227</v>
+        <v>2598.9188399420327</v>
       </c>
     </row>
     <row r="81">
@@ -712,7 +712,7 @@
         <v>45108.0</v>
       </c>
       <c r="B81" t="n">
-        <v>2776.659347703727</v>
+        <v>2780.322549047736</v>
       </c>
     </row>
     <row r="82">
@@ -720,7 +720,7 @@
         <v>45139.0</v>
       </c>
       <c r="B82" t="n">
-        <v>2944.8902325917584</v>
+        <v>2948.0849683794695</v>
       </c>
     </row>
     <row r="83">
@@ -728,7 +728,7 @@
         <v>45170.0</v>
       </c>
       <c r="B83" t="n">
-        <v>3107.683679935614</v>
+        <v>3109.39535960507</v>
       </c>
     </row>
     <row r="84">
@@ -736,7 +736,7 @@
         <v>45200.0</v>
       </c>
       <c r="B84" t="n">
-        <v>3331.910494061389</v>
+        <v>3332.2123183002036</v>
       </c>
     </row>
     <row r="85">
@@ -744,7 +744,7 @@
         <v>45231.0</v>
       </c>
       <c r="B85" t="n">
-        <v>3404.4169477763994</v>
+        <v>3403.5186079899554</v>
       </c>
     </row>
     <row r="86">
@@ -752,7 +752,7 @@
         <v>45261.0</v>
       </c>
       <c r="B86" t="n">
-        <v>3559.418245913489</v>
+        <v>3556.5552179254037</v>
       </c>
     </row>
     <row r="87">
@@ -760,7 +760,7 @@
         <v>45292.0</v>
       </c>
       <c r="B87" t="n">
-        <v>3737.959107066234</v>
+        <v>3732.3927561077794</v>
       </c>
     </row>
     <row r="88">
@@ -768,7 +768,7 @@
         <v>45323.0</v>
       </c>
       <c r="B88" t="n">
-        <v>3968.2775748167614</v>
+        <v>3959.970553221946</v>
       </c>
     </row>
     <row r="89">
@@ -776,7 +776,7 @@
         <v>45352.0</v>
       </c>
       <c r="B89" t="n">
-        <v>4215.9377322538985</v>
+        <v>4203.398062310921</v>
       </c>
     </row>
     <row r="90">
@@ -784,7 +784,7 @@
         <v>45383.0</v>
       </c>
       <c r="B90" t="n">
-        <v>4318.037370463868</v>
+        <v>4318.7684358161405</v>
       </c>
     </row>
     <row r="91">
@@ -792,7 +792,7 @@
         <v>45413.0</v>
       </c>
       <c r="B91" t="n">
-        <v>4359.95494913927</v>
+        <v>4368.0286736718635</v>
       </c>
     </row>
     <row r="92">
@@ -800,7 +800,7 @@
         <v>45444.0</v>
       </c>
       <c r="B92" t="n">
-        <v>4315.669900794078</v>
+        <v>4324.189494576766</v>
       </c>
     </row>
     <row r="93">
@@ -808,7 +808,7 @@
         <v>45474.0</v>
       </c>
       <c r="B93" t="n">
-        <v>4380.874116925168</v>
+        <v>4387.606985357753</v>
       </c>
     </row>
     <row r="94">
@@ -816,7 +816,7 @@
         <v>45505.0</v>
       </c>
       <c r="B94" t="n">
-        <v>4420.325662480798</v>
+        <v>4425.912837393001</v>
       </c>
     </row>
     <row r="95">
@@ -824,7 +824,7 @@
         <v>45536.0</v>
       </c>
       <c r="B95" t="n">
-        <v>4662.932565482801</v>
+        <v>4665.519722365909</v>
       </c>
     </row>
     <row r="96">
@@ -832,7 +832,7 @@
         <v>45566.0</v>
       </c>
       <c r="B96" t="n">
-        <v>4685.35193250099</v>
+        <v>4685.670978928971</v>
       </c>
     </row>
     <row r="97">
@@ -840,7 +840,7 @@
         <v>45597.0</v>
       </c>
       <c r="B97" t="n">
-        <v>4822.012522350942</v>
+        <v>4820.285407647084</v>
       </c>
     </row>
     <row r="98">
@@ -848,7 +848,7 @@
         <v>45627.0</v>
       </c>
       <c r="B98" t="n">
-        <v>4939.051607729208</v>
+        <v>4934.241122341248</v>
       </c>
     </row>
     <row r="99">
@@ -856,7 +856,7 @@
         <v>45658.0</v>
       </c>
       <c r="B99" t="n">
-        <v>4968.529099293756</v>
+        <v>4960.334749359275</v>
       </c>
     </row>
     <row r="100">
@@ -864,7 +864,7 @@
         <v>45689.0</v>
       </c>
       <c r="B100" t="n">
-        <v>5085.756279975725</v>
+        <v>5073.952784169947</v>
       </c>
     </row>
     <row r="101">
@@ -872,7 +872,15 @@
         <v>45717.0</v>
       </c>
       <c r="B101" t="n">
-        <v>5169.789292989702</v>
+        <v>5153.174378007521</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="1" t="n">
+        <v>45748.0</v>
+      </c>
+      <c r="B102" t="n">
+        <v>5204.744408835716</v>
       </c>
     </row>
   </sheetData>

--- a/diğerişlenmemişma.xlsx
+++ b/diğerişlenmemişma.xlsx
@@ -80,7 +80,7 @@
         <v>42705.0</v>
       </c>
       <c r="B2" t="n">
-        <v>382.8016775148072</v>
+        <v>382.0974768155724</v>
       </c>
     </row>
     <row r="3">
@@ -88,7 +88,7 @@
         <v>42736.0</v>
       </c>
       <c r="B3" t="n">
-        <v>381.8281932944002</v>
+        <v>381.4898551688991</v>
       </c>
     </row>
     <row r="4">
@@ -96,7 +96,7 @@
         <v>42767.0</v>
       </c>
       <c r="B4" t="n">
-        <v>384.759142291345</v>
+        <v>385.29348355405097</v>
       </c>
     </row>
     <row r="5">
@@ -104,7 +104,7 @@
         <v>42795.0</v>
       </c>
       <c r="B5" t="n">
-        <v>382.18652707787174</v>
+        <v>383.41449612213944</v>
       </c>
     </row>
     <row r="6">
@@ -112,7 +112,7 @@
         <v>42826.0</v>
       </c>
       <c r="B6" t="n">
-        <v>380.70964108344566</v>
+        <v>382.21256525757525</v>
       </c>
     </row>
     <row r="7">
@@ -120,7 +120,7 @@
         <v>42856.0</v>
       </c>
       <c r="B7" t="n">
-        <v>386.5480980072393</v>
+        <v>387.3600572577977</v>
       </c>
     </row>
     <row r="8">
@@ -128,7 +128,7 @@
         <v>42887.0</v>
       </c>
       <c r="B8" t="n">
-        <v>395.82893504948373</v>
+        <v>395.61541620784044</v>
       </c>
     </row>
     <row r="9">
@@ -136,7 +136,7 @@
         <v>42917.0</v>
       </c>
       <c r="B9" t="n">
-        <v>401.3971985591162</v>
+        <v>401.1834904884712</v>
       </c>
     </row>
     <row r="10">
@@ -144,7 +144,7 @@
         <v>42948.0</v>
       </c>
       <c r="B10" t="n">
-        <v>411.6674801344769</v>
+        <v>410.9525730854998</v>
       </c>
     </row>
     <row r="11">
@@ -152,7 +152,7 @@
         <v>42979.0</v>
       </c>
       <c r="B11" t="n">
-        <v>412.2742993176494</v>
+        <v>411.62210474023726</v>
       </c>
     </row>
     <row r="12">
@@ -160,7 +160,7 @@
         <v>43009.0</v>
       </c>
       <c r="B12" t="n">
-        <v>411.4825441456325</v>
+        <v>410.91557753800515</v>
       </c>
     </row>
     <row r="13">
@@ -168,7 +168,7 @@
         <v>43040.0</v>
       </c>
       <c r="B13" t="n">
-        <v>415.59730805355304</v>
+        <v>414.4653062144166</v>
       </c>
     </row>
     <row r="14">
@@ -176,7 +176,7 @@
         <v>43070.0</v>
       </c>
       <c r="B14" t="n">
-        <v>418.43893453532684</v>
+        <v>417.68698077434817</v>
       </c>
     </row>
     <row r="15">
@@ -184,7 +184,7 @@
         <v>43101.0</v>
       </c>
       <c r="B15" t="n">
-        <v>415.5579919784873</v>
+        <v>415.13427464357596</v>
       </c>
     </row>
     <row r="16">
@@ -192,7 +192,7 @@
         <v>43132.0</v>
       </c>
       <c r="B16" t="n">
-        <v>419.2121242965763</v>
+        <v>419.794358660556</v>
       </c>
     </row>
     <row r="17">
@@ -200,7 +200,7 @@
         <v>43160.0</v>
       </c>
       <c r="B17" t="n">
-        <v>422.290988035856</v>
+        <v>423.57304017996535</v>
       </c>
     </row>
     <row r="18">
@@ -208,7 +208,7 @@
         <v>43191.0</v>
       </c>
       <c r="B18" t="n">
-        <v>417.64569281367585</v>
+        <v>419.1132135768068</v>
       </c>
     </row>
     <row r="19">
@@ -216,7 +216,7 @@
         <v>43221.0</v>
       </c>
       <c r="B19" t="n">
-        <v>432.55435026820373</v>
+        <v>433.3381437336678</v>
       </c>
     </row>
     <row r="20">
@@ -224,7 +224,7 @@
         <v>43252.0</v>
       </c>
       <c r="B20" t="n">
-        <v>465.6847240856815</v>
+        <v>465.4956074065831</v>
       </c>
     </row>
     <row r="21">
@@ -232,7 +232,7 @@
         <v>43282.0</v>
       </c>
       <c r="B21" t="n">
-        <v>470.4241721652231</v>
+        <v>470.2862870021344</v>
       </c>
     </row>
     <row r="22">
@@ -240,7 +240,7 @@
         <v>43313.0</v>
       </c>
       <c r="B22" t="n">
-        <v>484.5684515981795</v>
+        <v>484.0156378026409</v>
       </c>
     </row>
     <row r="23">
@@ -248,7 +248,7 @@
         <v>43344.0</v>
       </c>
       <c r="B23" t="n">
-        <v>505.2714394858549</v>
+        <v>504.7379594658228</v>
       </c>
     </row>
     <row r="24">
@@ -256,7 +256,7 @@
         <v>43374.0</v>
       </c>
       <c r="B24" t="n">
-        <v>520.0989038768363</v>
+        <v>519.5586424442259</v>
       </c>
     </row>
     <row r="25">
@@ -264,7 +264,7 @@
         <v>43405.0</v>
       </c>
       <c r="B25" t="n">
-        <v>520.7285163889501</v>
+        <v>519.4275739306519</v>
       </c>
     </row>
     <row r="26">
@@ -272,7 +272,7 @@
         <v>43435.0</v>
       </c>
       <c r="B26" t="n">
-        <v>522.7113224852145</v>
+        <v>521.810263366708</v>
       </c>
     </row>
     <row r="27">
@@ -280,7 +280,7 @@
         <v>43466.0</v>
       </c>
       <c r="B27" t="n">
-        <v>527.6280999530668</v>
+        <v>526.8371988154155</v>
       </c>
     </row>
     <row r="28">
@@ -288,7 +288,7 @@
         <v>43497.0</v>
       </c>
       <c r="B28" t="n">
-        <v>531.8600642321072</v>
+        <v>532.4193304182658</v>
       </c>
     </row>
     <row r="29">
@@ -296,7 +296,7 @@
         <v>43525.0</v>
       </c>
       <c r="B29" t="n">
-        <v>526.3420100875073</v>
+        <v>527.5402251670066</v>
       </c>
     </row>
     <row r="30">
@@ -304,7 +304,7 @@
         <v>43556.0</v>
       </c>
       <c r="B30" t="n">
-        <v>542.8655098373546</v>
+        <v>543.9799685931403</v>
       </c>
     </row>
     <row r="31">
@@ -312,7 +312,7 @@
         <v>43586.0</v>
       </c>
       <c r="B31" t="n">
-        <v>555.4283597250181</v>
+        <v>555.8833540280773</v>
       </c>
     </row>
     <row r="32">
@@ -320,7 +320,7 @@
         <v>43617.0</v>
       </c>
       <c r="B32" t="n">
-        <v>547.2562741851891</v>
+        <v>547.1663637639913</v>
       </c>
     </row>
     <row r="33">
@@ -328,7 +328,7 @@
         <v>43647.0</v>
       </c>
       <c r="B33" t="n">
-        <v>549.6468741063516</v>
+        <v>549.6434948803765</v>
       </c>
     </row>
     <row r="34">
@@ -336,7 +336,7 @@
         <v>43678.0</v>
       </c>
       <c r="B34" t="n">
-        <v>547.9670187886599</v>
+        <v>547.7706511868229</v>
       </c>
     </row>
     <row r="35">
@@ -344,7 +344,7 @@
         <v>43709.0</v>
       </c>
       <c r="B35" t="n">
-        <v>545.6695533204353</v>
+        <v>545.6990190649592</v>
       </c>
     </row>
     <row r="36">
@@ -352,7 +352,7 @@
         <v>43739.0</v>
       </c>
       <c r="B36" t="n">
-        <v>546.9135197366703</v>
+        <v>546.9363483333398</v>
       </c>
     </row>
     <row r="37">
@@ -360,7 +360,7 @@
         <v>43770.0</v>
       </c>
       <c r="B37" t="n">
-        <v>551.6206873868127</v>
+        <v>550.5816155384911</v>
       </c>
     </row>
     <row r="38">
@@ -368,7 +368,7 @@
         <v>43800.0</v>
       </c>
       <c r="B38" t="n">
-        <v>564.4839539895405</v>
+        <v>563.6873151146209</v>
       </c>
     </row>
     <row r="39">
@@ -376,7 +376,7 @@
         <v>43831.0</v>
       </c>
       <c r="B39" t="n">
-        <v>567.9061858906638</v>
+        <v>566.8332607304848</v>
       </c>
     </row>
     <row r="40">
@@ -384,7 +384,7 @@
         <v>43862.0</v>
       </c>
       <c r="B40" t="n">
-        <v>577.8839082067841</v>
+        <v>578.3616891227296</v>
       </c>
     </row>
     <row r="41">
@@ -392,7 +392,7 @@
         <v>43891.0</v>
       </c>
       <c r="B41" t="n">
-        <v>587.6275960654244</v>
+        <v>588.4175996300793</v>
       </c>
     </row>
     <row r="42">
@@ -400,7 +400,7 @@
         <v>43922.0</v>
       </c>
       <c r="B42" t="n">
-        <v>601.3859663667085</v>
+        <v>601.8253146900905</v>
       </c>
     </row>
     <row r="43">
@@ -408,7 +408,7 @@
         <v>43952.0</v>
       </c>
       <c r="B43" t="n">
-        <v>608.5724089930669</v>
+        <v>608.699829699053</v>
       </c>
     </row>
     <row r="44">
@@ -416,7 +416,7 @@
         <v>43983.0</v>
       </c>
       <c r="B44" t="n">
-        <v>603.8695869249777</v>
+        <v>603.9658346953635</v>
       </c>
     </row>
     <row r="45">
@@ -424,7 +424,7 @@
         <v>44013.0</v>
       </c>
       <c r="B45" t="n">
-        <v>614.6013462073315</v>
+        <v>614.7490255646438</v>
       </c>
     </row>
     <row r="46">
@@ -432,7 +432,7 @@
         <v>44044.0</v>
       </c>
       <c r="B46" t="n">
-        <v>623.1328854699225</v>
+        <v>623.2941205391119</v>
       </c>
     </row>
     <row r="47">
@@ -440,7 +440,7 @@
         <v>44075.0</v>
       </c>
       <c r="B47" t="n">
-        <v>625.9637295747569</v>
+        <v>626.4885449985046</v>
       </c>
     </row>
     <row r="48">
@@ -448,7 +448,7 @@
         <v>44105.0</v>
       </c>
       <c r="B48" t="n">
-        <v>644.7035118505219</v>
+        <v>645.2023563485387</v>
       </c>
     </row>
     <row r="49">
@@ -456,7 +456,7 @@
         <v>44136.0</v>
       </c>
       <c r="B49" t="n">
-        <v>676.5205752306339</v>
+        <v>675.4266935131279</v>
       </c>
     </row>
     <row r="50">
@@ -464,7 +464,7 @@
         <v>44166.0</v>
       </c>
       <c r="B50" t="n">
-        <v>691.287371301497</v>
+        <v>690.4607267973673</v>
       </c>
     </row>
     <row r="51">
@@ -472,7 +472,7 @@
         <v>44197.0</v>
       </c>
       <c r="B51" t="n">
-        <v>697.6645072621413</v>
+        <v>695.950515957287</v>
       </c>
     </row>
     <row r="52">
@@ -480,7 +480,7 @@
         <v>44228.0</v>
       </c>
       <c r="B52" t="n">
-        <v>707.2040927578948</v>
+        <v>707.678518898948</v>
       </c>
     </row>
     <row r="53">
@@ -488,7 +488,7 @@
         <v>44256.0</v>
       </c>
       <c r="B53" t="n">
-        <v>704.0002819673537</v>
+        <v>704.3550551412364</v>
       </c>
     </row>
     <row r="54">
@@ -496,7 +496,7 @@
         <v>44287.0</v>
       </c>
       <c r="B54" t="n">
-        <v>692.3080752012024</v>
+        <v>692.0587779081222</v>
       </c>
     </row>
     <row r="55">
@@ -504,7 +504,7 @@
         <v>44317.0</v>
       </c>
       <c r="B55" t="n">
-        <v>713.3205196330113</v>
+        <v>713.214569681886</v>
       </c>
     </row>
     <row r="56">
@@ -512,7 +512,7 @@
         <v>44348.0</v>
       </c>
       <c r="B56" t="n">
-        <v>745.5948032736139</v>
+        <v>745.8488214374624</v>
       </c>
     </row>
     <row r="57">
@@ -520,7 +520,7 @@
         <v>44378.0</v>
       </c>
       <c r="B57" t="n">
-        <v>771.3840880912051</v>
+        <v>771.699399005655</v>
       </c>
     </row>
     <row r="58">
@@ -528,7 +528,7 @@
         <v>44409.0</v>
       </c>
       <c r="B58" t="n">
-        <v>801.4749462815003</v>
+        <v>802.1031102906225</v>
       </c>
     </row>
     <row r="59">
@@ -536,7 +536,7 @@
         <v>44440.0</v>
       </c>
       <c r="B59" t="n">
-        <v>822.8946897254889</v>
+        <v>823.9974483603253</v>
       </c>
     </row>
     <row r="60">
@@ -544,7 +544,7 @@
         <v>44470.0</v>
       </c>
       <c r="B60" t="n">
-        <v>842.549281480693</v>
+        <v>843.7605055914815</v>
       </c>
     </row>
     <row r="61">
@@ -552,7 +552,7 @@
         <v>44501.0</v>
       </c>
       <c r="B61" t="n">
-        <v>888.9743959881673</v>
+        <v>888.1857420946703</v>
       </c>
     </row>
     <row r="62">
@@ -560,7 +560,7 @@
         <v>44531.0</v>
       </c>
       <c r="B62" t="n">
-        <v>1053.9886547028077</v>
+        <v>1053.6157967250308</v>
       </c>
     </row>
     <row r="63">
@@ -568,7 +568,7 @@
         <v>44562.0</v>
       </c>
       <c r="B63" t="n">
-        <v>1120.418745193749</v>
+        <v>1117.5613738541686</v>
       </c>
     </row>
     <row r="64">
@@ -576,7 +576,7 @@
         <v>44593.0</v>
       </c>
       <c r="B64" t="n">
-        <v>1144.994254199163</v>
+        <v>1146.0980448622659</v>
       </c>
     </row>
     <row r="65">
@@ -584,7 +584,7 @@
         <v>44621.0</v>
       </c>
       <c r="B65" t="n">
-        <v>1222.3688846237526</v>
+        <v>1221.9555299524304</v>
       </c>
     </row>
     <row r="66">
@@ -592,7 +592,7 @@
         <v>44652.0</v>
       </c>
       <c r="B66" t="n">
-        <v>1355.6816825533526</v>
+        <v>1352.9878592814077</v>
       </c>
     </row>
     <row r="67">
@@ -600,7 +600,7 @@
         <v>44682.0</v>
       </c>
       <c r="B67" t="n">
-        <v>1413.2220447087655</v>
+        <v>1411.7822523008647</v>
       </c>
     </row>
     <row r="68">
@@ -608,7 +608,7 @@
         <v>44713.0</v>
       </c>
       <c r="B68" t="n">
-        <v>1477.3746732211478</v>
+        <v>1477.8231850198683</v>
       </c>
     </row>
     <row r="69">
@@ -616,7 +616,7 @@
         <v>44743.0</v>
       </c>
       <c r="B69" t="n">
-        <v>1525.8093966408444</v>
+        <v>1526.4823230900013</v>
       </c>
     </row>
     <row r="70">
@@ -624,7 +624,7 @@
         <v>44774.0</v>
       </c>
       <c r="B70" t="n">
-        <v>1566.0652009048308</v>
+        <v>1568.0063401081914</v>
       </c>
     </row>
     <row r="71">
@@ -632,7 +632,7 @@
         <v>44805.0</v>
       </c>
       <c r="B71" t="n">
-        <v>1604.1584099040201</v>
+        <v>1606.5885845622754</v>
       </c>
     </row>
     <row r="72">
@@ -640,7 +640,7 @@
         <v>44835.0</v>
       </c>
       <c r="B72" t="n">
-        <v>1681.3307770817703</v>
+        <v>1684.01017052576</v>
       </c>
     </row>
     <row r="73">
@@ -648,7 +648,7 @@
         <v>44866.0</v>
       </c>
       <c r="B73" t="n">
-        <v>1740.6779181345146</v>
+        <v>1739.789738025861</v>
       </c>
     </row>
     <row r="74">
@@ -656,7 +656,7 @@
         <v>44896.0</v>
       </c>
       <c r="B74" t="n">
-        <v>1801.213442627928</v>
+        <v>1801.5984692875518</v>
       </c>
     </row>
     <row r="75">
@@ -664,7 +664,7 @@
         <v>44927.0</v>
       </c>
       <c r="B75" t="n">
-        <v>1967.9731843645602</v>
+        <v>1962.7271440006882</v>
       </c>
     </row>
     <row r="76">
@@ -672,7 +672,7 @@
         <v>44958.0</v>
       </c>
       <c r="B76" t="n">
-        <v>2095.119555324046</v>
+        <v>2097.2173219261904</v>
       </c>
     </row>
     <row r="77">
@@ -680,7 +680,7 @@
         <v>44986.0</v>
       </c>
       <c r="B77" t="n">
-        <v>2273.7533883949836</v>
+        <v>2271.264735935708</v>
       </c>
     </row>
     <row r="78">
@@ -688,7 +688,7 @@
         <v>45017.0</v>
       </c>
       <c r="B78" t="n">
-        <v>2426.4447917053762</v>
+        <v>2419.8803963790715</v>
       </c>
     </row>
     <row r="79">
@@ -696,7 +696,7 @@
         <v>45047.0</v>
       </c>
       <c r="B79" t="n">
-        <v>2501.970476631953</v>
+        <v>2499.4668653168187</v>
       </c>
     </row>
     <row r="80">
@@ -704,7 +704,7 @@
         <v>45078.0</v>
       </c>
       <c r="B80" t="n">
-        <v>2598.9188399420327</v>
+        <v>2601.7339641514213</v>
       </c>
     </row>
     <row r="81">
@@ -712,7 +712,7 @@
         <v>45108.0</v>
       </c>
       <c r="B81" t="n">
-        <v>2780.322549047736</v>
+        <v>2783.229673236065</v>
       </c>
     </row>
     <row r="82">
@@ -720,7 +720,7 @@
         <v>45139.0</v>
       </c>
       <c r="B82" t="n">
-        <v>2948.0849683794695</v>
+        <v>2953.6080476676443</v>
       </c>
     </row>
     <row r="83">
@@ -728,7 +728,7 @@
         <v>45170.0</v>
       </c>
       <c r="B83" t="n">
-        <v>3109.39535960507</v>
+        <v>3113.688276681982</v>
       </c>
     </row>
     <row r="84">
@@ -736,7 +736,7 @@
         <v>45200.0</v>
       </c>
       <c r="B84" t="n">
-        <v>3332.2123183002036</v>
+        <v>3336.8147323136254</v>
       </c>
     </row>
     <row r="85">
@@ -744,7 +744,7 @@
         <v>45231.0</v>
       </c>
       <c r="B85" t="n">
-        <v>3403.5186079899554</v>
+        <v>3400.2051726815034</v>
       </c>
     </row>
     <row r="86">
@@ -752,7 +752,7 @@
         <v>45261.0</v>
       </c>
       <c r="B86" t="n">
-        <v>3556.5552179254037</v>
+        <v>3555.4763531663557</v>
       </c>
     </row>
     <row r="87">
@@ -760,7 +760,7 @@
         <v>45292.0</v>
       </c>
       <c r="B87" t="n">
-        <v>3732.3927561077794</v>
+        <v>3719.949284930939</v>
       </c>
     </row>
     <row r="88">
@@ -768,7 +768,7 @@
         <v>45323.0</v>
       </c>
       <c r="B88" t="n">
-        <v>3959.970553221946</v>
+        <v>3963.3950254932324</v>
       </c>
     </row>
     <row r="89">
@@ -776,7 +776,7 @@
         <v>45352.0</v>
       </c>
       <c r="B89" t="n">
-        <v>4203.398062310921</v>
+        <v>4196.955343360856</v>
       </c>
     </row>
     <row r="90">
@@ -784,7 +784,7 @@
         <v>45383.0</v>
       </c>
       <c r="B90" t="n">
-        <v>4318.7684358161405</v>
+        <v>4306.466587194029</v>
       </c>
     </row>
     <row r="91">
@@ -792,7 +792,7 @@
         <v>45413.0</v>
       </c>
       <c r="B91" t="n">
-        <v>4368.0286736718635</v>
+        <v>4364.257716001357</v>
       </c>
     </row>
     <row r="92">
@@ -800,7 +800,7 @@
         <v>45444.0</v>
       </c>
       <c r="B92" t="n">
-        <v>4324.189494576766</v>
+        <v>4331.396508716385</v>
       </c>
     </row>
     <row r="93">
@@ -808,7 +808,7 @@
         <v>45474.0</v>
       </c>
       <c r="B93" t="n">
-        <v>4387.606985357753</v>
+        <v>4394.827124366233</v>
       </c>
     </row>
     <row r="94">
@@ -816,7 +816,7 @@
         <v>45505.0</v>
       </c>
       <c r="B94" t="n">
-        <v>4425.912837393001</v>
+        <v>4437.024287992764</v>
       </c>
     </row>
     <row r="95">
@@ -824,7 +824,7 @@
         <v>45536.0</v>
       </c>
       <c r="B95" t="n">
-        <v>4665.519722365909</v>
+        <v>4671.963734649533</v>
       </c>
     </row>
     <row r="96">
@@ -832,7 +832,7 @@
         <v>45566.0</v>
       </c>
       <c r="B96" t="n">
-        <v>4685.670978928971</v>
+        <v>4692.57022559713</v>
       </c>
     </row>
     <row r="97">
@@ -840,7 +840,7 @@
         <v>45597.0</v>
       </c>
       <c r="B97" t="n">
-        <v>4820.285407647084</v>
+        <v>4896.8695375523375</v>
       </c>
     </row>
     <row r="98">
@@ -848,7 +848,7 @@
         <v>45627.0</v>
       </c>
       <c r="B98" t="n">
-        <v>4934.241122341248</v>
+        <v>5018.054027860931</v>
       </c>
     </row>
     <row r="99">
@@ -856,7 +856,7 @@
         <v>45658.0</v>
       </c>
       <c r="B99" t="n">
-        <v>4960.334749359275</v>
+        <v>5086.032196694227</v>
       </c>
     </row>
     <row r="100">
@@ -864,7 +864,7 @@
         <v>45689.0</v>
       </c>
       <c r="B100" t="n">
-        <v>5073.952784169947</v>
+        <v>5077.995269865931</v>
       </c>
     </row>
     <row r="101">
@@ -872,7 +872,7 @@
         <v>45717.0</v>
       </c>
       <c r="B101" t="n">
-        <v>5153.174378007521</v>
+        <v>5162.275037436075</v>
       </c>
     </row>
     <row r="102">
@@ -880,7 +880,7 @@
         <v>45748.0</v>
       </c>
       <c r="B102" t="n">
-        <v>5204.744408835716</v>
+        <v>5241.375425434459</v>
       </c>
     </row>
   </sheetData>

--- a/diğerişlenmemişma.xlsx
+++ b/diğerişlenmemişma.xlsx
@@ -80,7 +80,7 @@
         <v>42705.0</v>
       </c>
       <c r="B2" t="n">
-        <v>382.0974768155724</v>
+        <v>382.12275709888655</v>
       </c>
     </row>
     <row r="3">
@@ -88,7 +88,7 @@
         <v>42736.0</v>
       </c>
       <c r="B3" t="n">
-        <v>381.4898551688991</v>
+        <v>381.50314492794246</v>
       </c>
     </row>
     <row r="4">
@@ -96,7 +96,7 @@
         <v>42767.0</v>
       </c>
       <c r="B4" t="n">
-        <v>385.29348355405097</v>
+        <v>385.31227508425064</v>
       </c>
     </row>
     <row r="5">
@@ -104,7 +104,7 @@
         <v>42795.0</v>
       </c>
       <c r="B5" t="n">
-        <v>383.41449612213944</v>
+        <v>383.42081811497457</v>
       </c>
     </row>
     <row r="6">
@@ -112,7 +112,7 @@
         <v>42826.0</v>
       </c>
       <c r="B6" t="n">
-        <v>382.21256525757525</v>
+        <v>382.1696126374753</v>
       </c>
     </row>
     <row r="7">
@@ -120,7 +120,7 @@
         <v>42856.0</v>
       </c>
       <c r="B7" t="n">
-        <v>387.3600572577977</v>
+        <v>387.3184501867037</v>
       </c>
     </row>
     <row r="8">
@@ -128,7 +128,7 @@
         <v>42887.0</v>
       </c>
       <c r="B8" t="n">
-        <v>395.61541620784044</v>
+        <v>395.60071896185207</v>
       </c>
     </row>
     <row r="9">
@@ -136,7 +136,7 @@
         <v>42917.0</v>
       </c>
       <c r="B9" t="n">
-        <v>401.1834904884712</v>
+        <v>401.17400876543707</v>
       </c>
     </row>
     <row r="10">
@@ -144,7 +144,7 @@
         <v>42948.0</v>
       </c>
       <c r="B10" t="n">
-        <v>410.9525730854998</v>
+        <v>410.9600623620174</v>
       </c>
     </row>
     <row r="11">
@@ -152,7 +152,7 @@
         <v>42979.0</v>
       </c>
       <c r="B11" t="n">
-        <v>411.62210474023726</v>
+        <v>411.6351563189677</v>
       </c>
     </row>
     <row r="12">
@@ -160,7 +160,7 @@
         <v>43009.0</v>
       </c>
       <c r="B12" t="n">
-        <v>410.91557753800515</v>
+        <v>410.9339082171034</v>
       </c>
     </row>
     <row r="13">
@@ -168,7 +168,7 @@
         <v>43040.0</v>
       </c>
       <c r="B13" t="n">
-        <v>414.4653062144166</v>
+        <v>414.4881852256352</v>
       </c>
     </row>
     <row r="14">
@@ -176,7 +176,7 @@
         <v>43070.0</v>
       </c>
       <c r="B14" t="n">
-        <v>417.68698077434817</v>
+        <v>417.71378420200523</v>
       </c>
     </row>
     <row r="15">
@@ -184,7 +184,7 @@
         <v>43101.0</v>
       </c>
       <c r="B15" t="n">
-        <v>415.13427464357596</v>
+        <v>415.1497838432107</v>
       </c>
     </row>
     <row r="16">
@@ -192,7 +192,7 @@
         <v>43132.0</v>
       </c>
       <c r="B16" t="n">
-        <v>419.794358660556</v>
+        <v>419.8157382908244</v>
       </c>
     </row>
     <row r="17">
@@ -200,7 +200,7 @@
         <v>43160.0</v>
       </c>
       <c r="B17" t="n">
-        <v>423.57304017996535</v>
+        <v>423.58293994608135</v>
       </c>
     </row>
     <row r="18">
@@ -208,7 +208,7 @@
         <v>43191.0</v>
       </c>
       <c r="B18" t="n">
-        <v>419.1132135768068</v>
+        <v>419.06950535304674</v>
       </c>
     </row>
     <row r="19">
@@ -216,7 +216,7 @@
         <v>43221.0</v>
       </c>
       <c r="B19" t="n">
-        <v>433.3381437336678</v>
+        <v>433.29334544199713</v>
       </c>
     </row>
     <row r="20">
@@ -224,7 +224,7 @@
         <v>43252.0</v>
       </c>
       <c r="B20" t="n">
-        <v>465.4956074065831</v>
+        <v>465.4762812288003</v>
       </c>
     </row>
     <row r="21">
@@ -232,7 +232,7 @@
         <v>43282.0</v>
       </c>
       <c r="B21" t="n">
-        <v>470.2862870021344</v>
+        <v>470.27214338943315</v>
       </c>
     </row>
     <row r="22">
@@ -240,7 +240,7 @@
         <v>43313.0</v>
       </c>
       <c r="B22" t="n">
-        <v>484.0156378026409</v>
+        <v>484.0175474825311</v>
       </c>
     </row>
     <row r="23">
@@ -248,7 +248,7 @@
         <v>43344.0</v>
       </c>
       <c r="B23" t="n">
-        <v>504.7379594658228</v>
+        <v>504.7478656752354</v>
       </c>
     </row>
     <row r="24">
@@ -256,7 +256,7 @@
         <v>43374.0</v>
       </c>
       <c r="B24" t="n">
-        <v>519.5586424442259</v>
+        <v>519.578081591233</v>
       </c>
     </row>
     <row r="25">
@@ -264,7 +264,7 @@
         <v>43405.0</v>
       </c>
       <c r="B25" t="n">
-        <v>519.4275739306519</v>
+        <v>519.4534533766739</v>
       </c>
     </row>
     <row r="26">
@@ -272,7 +272,7 @@
         <v>43435.0</v>
       </c>
       <c r="B26" t="n">
-        <v>521.810263366708</v>
+        <v>521.8432102655466</v>
       </c>
     </row>
     <row r="27">
@@ -280,7 +280,7 @@
         <v>43466.0</v>
       </c>
       <c r="B27" t="n">
-        <v>526.8371988154155</v>
+        <v>526.8633191768816</v>
       </c>
     </row>
     <row r="28">
@@ -288,7 +288,7 @@
         <v>43497.0</v>
       </c>
       <c r="B28" t="n">
-        <v>532.4193304182658</v>
+        <v>532.453703493156</v>
       </c>
     </row>
     <row r="29">
@@ -296,7 +296,7 @@
         <v>43525.0</v>
       </c>
       <c r="B29" t="n">
-        <v>527.5402251670066</v>
+        <v>527.5651563201989</v>
       </c>
     </row>
     <row r="30">
@@ -304,7 +304,7 @@
         <v>43556.0</v>
       </c>
       <c r="B30" t="n">
-        <v>543.9799685931403</v>
+        <v>543.9399175835673</v>
       </c>
     </row>
     <row r="31">
@@ -312,7 +312,7 @@
         <v>43586.0</v>
       </c>
       <c r="B31" t="n">
-        <v>555.8833540280773</v>
+        <v>555.8357303618761</v>
       </c>
     </row>
     <row r="32">
@@ -320,7 +320,7 @@
         <v>43617.0</v>
       </c>
       <c r="B32" t="n">
-        <v>547.1663637639913</v>
+        <v>547.1384216355772</v>
       </c>
     </row>
     <row r="33">
@@ -328,7 +328,7 @@
         <v>43647.0</v>
       </c>
       <c r="B33" t="n">
-        <v>549.6434948803765</v>
+        <v>549.6218573324306</v>
       </c>
     </row>
     <row r="34">
@@ -336,7 +336,7 @@
         <v>43678.0</v>
       </c>
       <c r="B34" t="n">
-        <v>547.7706511868229</v>
+        <v>547.7621901901372</v>
       </c>
     </row>
     <row r="35">
@@ -344,7 +344,7 @@
         <v>43709.0</v>
       </c>
       <c r="B35" t="n">
-        <v>545.6990190649592</v>
+        <v>545.6953014596081</v>
       </c>
     </row>
     <row r="36">
@@ -352,7 +352,7 @@
         <v>43739.0</v>
       </c>
       <c r="B36" t="n">
-        <v>546.9363483333398</v>
+        <v>546.9433395139325</v>
       </c>
     </row>
     <row r="37">
@@ -360,7 +360,7 @@
         <v>43770.0</v>
       </c>
       <c r="B37" t="n">
-        <v>550.5816155384911</v>
+        <v>550.6011692261224</v>
       </c>
     </row>
     <row r="38">
@@ -368,7 +368,7 @@
         <v>43800.0</v>
       </c>
       <c r="B38" t="n">
-        <v>563.6873151146209</v>
+        <v>563.7200552920098</v>
       </c>
     </row>
     <row r="39">
@@ -376,7 +376,7 @@
         <v>43831.0</v>
       </c>
       <c r="B39" t="n">
-        <v>566.8332607304848</v>
+        <v>566.8677602842873</v>
       </c>
     </row>
     <row r="40">
@@ -384,7 +384,7 @@
         <v>43862.0</v>
       </c>
       <c r="B40" t="n">
-        <v>578.3616891227296</v>
+        <v>578.4073007413289</v>
       </c>
     </row>
     <row r="41">
@@ -392,7 +392,7 @@
         <v>43891.0</v>
       </c>
       <c r="B41" t="n">
-        <v>588.4175996300793</v>
+        <v>588.464089930461</v>
       </c>
     </row>
     <row r="42">
@@ -400,7 +400,7 @@
         <v>43922.0</v>
       </c>
       <c r="B42" t="n">
-        <v>601.8253146900905</v>
+        <v>601.7959441727662</v>
       </c>
     </row>
     <row r="43">
@@ -408,7 +408,7 @@
         <v>43952.0</v>
       </c>
       <c r="B43" t="n">
-        <v>608.699829699053</v>
+        <v>608.650391820631</v>
       </c>
     </row>
     <row r="44">
@@ -416,7 +416,7 @@
         <v>43983.0</v>
       </c>
       <c r="B44" t="n">
-        <v>603.9658346953635</v>
+        <v>603.9264920726823</v>
       </c>
     </row>
     <row r="45">
@@ -424,7 +424,7 @@
         <v>44013.0</v>
       </c>
       <c r="B45" t="n">
-        <v>614.7490255646438</v>
+        <v>614.7185026474341</v>
       </c>
     </row>
     <row r="46">
@@ -432,7 +432,7 @@
         <v>44044.0</v>
       </c>
       <c r="B46" t="n">
-        <v>623.2941205391119</v>
+        <v>623.2743006658849</v>
       </c>
     </row>
     <row r="47">
@@ -440,7 +440,7 @@
         <v>44075.0</v>
       </c>
       <c r="B47" t="n">
-        <v>626.4885449985046</v>
+        <v>626.4725361730956</v>
       </c>
     </row>
     <row r="48">
@@ -448,7 +448,7 @@
         <v>44105.0</v>
       </c>
       <c r="B48" t="n">
-        <v>645.2023563485387</v>
+        <v>645.2006369220453</v>
       </c>
     </row>
     <row r="49">
@@ -456,7 +456,7 @@
         <v>44136.0</v>
       </c>
       <c r="B49" t="n">
-        <v>675.4266935131279</v>
+        <v>675.447208805841</v>
       </c>
     </row>
     <row r="50">
@@ -464,7 +464,7 @@
         <v>44166.0</v>
       </c>
       <c r="B50" t="n">
-        <v>690.4607267973673</v>
+        <v>690.5002043404806</v>
       </c>
     </row>
     <row r="51">
@@ -472,7 +472,7 @@
         <v>44197.0</v>
       </c>
       <c r="B51" t="n">
-        <v>695.950515957287</v>
+        <v>696.004940426995</v>
       </c>
     </row>
     <row r="52">
@@ -480,7 +480,7 @@
         <v>44228.0</v>
       </c>
       <c r="B52" t="n">
-        <v>707.678518898948</v>
+        <v>707.7461573664928</v>
       </c>
     </row>
     <row r="53">
@@ -488,7 +488,7 @@
         <v>44256.0</v>
       </c>
       <c r="B53" t="n">
-        <v>704.3550551412364</v>
+        <v>704.4345409074464</v>
       </c>
     </row>
     <row r="54">
@@ -496,7 +496,7 @@
         <v>44287.0</v>
       </c>
       <c r="B54" t="n">
-        <v>692.0587779081222</v>
+        <v>692.036809972171</v>
       </c>
     </row>
     <row r="55">
@@ -504,7 +504,7 @@
         <v>44317.0</v>
       </c>
       <c r="B55" t="n">
-        <v>713.214569681886</v>
+        <v>713.152644168714</v>
       </c>
     </row>
     <row r="56">
@@ -512,7 +512,7 @@
         <v>44348.0</v>
       </c>
       <c r="B56" t="n">
-        <v>745.8488214374624</v>
+        <v>745.7901243130517</v>
       </c>
     </row>
     <row r="57">
@@ -520,7 +520,7 @@
         <v>44378.0</v>
       </c>
       <c r="B57" t="n">
-        <v>771.699399005655</v>
+        <v>771.6528513196666</v>
       </c>
     </row>
     <row r="58">
@@ -528,7 +528,7 @@
         <v>44409.0</v>
       </c>
       <c r="B58" t="n">
-        <v>802.1031102906225</v>
+        <v>802.065134549154</v>
       </c>
     </row>
     <row r="59">
@@ -536,7 +536,7 @@
         <v>44440.0</v>
       </c>
       <c r="B59" t="n">
-        <v>823.9974483603253</v>
+        <v>823.9661170529007</v>
       </c>
     </row>
     <row r="60">
@@ -544,7 +544,7 @@
         <v>44470.0</v>
       </c>
       <c r="B60" t="n">
-        <v>843.7605055914815</v>
+        <v>843.7468116246984</v>
       </c>
     </row>
     <row r="61">
@@ -552,7 +552,7 @@
         <v>44501.0</v>
       </c>
       <c r="B61" t="n">
-        <v>888.1857420946703</v>
+        <v>888.1982486919485</v>
       </c>
     </row>
     <row r="62">
@@ -560,7 +560,7 @@
         <v>44531.0</v>
       </c>
       <c r="B62" t="n">
-        <v>1053.6157967250308</v>
+        <v>1053.6603088918282</v>
       </c>
     </row>
     <row r="63">
@@ -568,7 +568,7 @@
         <v>44562.0</v>
       </c>
       <c r="B63" t="n">
-        <v>1117.5613738541686</v>
+        <v>1117.6572341823512</v>
       </c>
     </row>
     <row r="64">
@@ -576,7 +576,7 @@
         <v>44593.0</v>
       </c>
       <c r="B64" t="n">
-        <v>1146.0980448622659</v>
+        <v>1146.2190631334795</v>
       </c>
     </row>
     <row r="65">
@@ -584,7 +584,7 @@
         <v>44621.0</v>
       </c>
       <c r="B65" t="n">
-        <v>1221.9555299524304</v>
+        <v>1222.1412716051962</v>
       </c>
     </row>
     <row r="66">
@@ -592,7 +592,7 @@
         <v>44652.0</v>
       </c>
       <c r="B66" t="n">
-        <v>1352.9878592814077</v>
+        <v>1352.9838400648282</v>
       </c>
     </row>
     <row r="67">
@@ -600,7 +600,7 @@
         <v>44682.0</v>
       </c>
       <c r="B67" t="n">
-        <v>1411.7822523008647</v>
+        <v>1411.6638533325502</v>
       </c>
     </row>
     <row r="68">
@@ -608,7 +608,7 @@
         <v>44713.0</v>
       </c>
       <c r="B68" t="n">
-        <v>1477.8231850198683</v>
+        <v>1477.689652435486</v>
       </c>
     </row>
     <row r="69">
@@ -616,7 +616,7 @@
         <v>44743.0</v>
       </c>
       <c r="B69" t="n">
-        <v>1526.4823230900013</v>
+        <v>1526.37556621312</v>
       </c>
     </row>
     <row r="70">
@@ -624,7 +624,7 @@
         <v>44774.0</v>
       </c>
       <c r="B70" t="n">
-        <v>1568.0063401081914</v>
+        <v>1567.908199531791</v>
       </c>
     </row>
     <row r="71">
@@ -632,7 +632,7 @@
         <v>44805.0</v>
       </c>
       <c r="B71" t="n">
-        <v>1606.5885845622754</v>
+        <v>1606.519581246099</v>
       </c>
     </row>
     <row r="72">
@@ -640,7 +640,7 @@
         <v>44835.0</v>
       </c>
       <c r="B72" t="n">
-        <v>1684.01017052576</v>
+        <v>1683.9827694915368</v>
       </c>
     </row>
     <row r="73">
@@ -648,7 +648,7 @@
         <v>44866.0</v>
       </c>
       <c r="B73" t="n">
-        <v>1739.789738025861</v>
+        <v>1739.8028924833152</v>
       </c>
     </row>
     <row r="74">
@@ -656,7 +656,7 @@
         <v>44896.0</v>
       </c>
       <c r="B74" t="n">
-        <v>1801.5984692875518</v>
+        <v>1801.6612200613988</v>
       </c>
     </row>
     <row r="75">
@@ -664,7 +664,7 @@
         <v>44927.0</v>
       </c>
       <c r="B75" t="n">
-        <v>1962.7271440006882</v>
+        <v>1962.914150906362</v>
       </c>
     </row>
     <row r="76">
@@ -672,7 +672,7 @@
         <v>44958.0</v>
       </c>
       <c r="B76" t="n">
-        <v>2097.2173219261904</v>
+        <v>2097.483340381189</v>
       </c>
     </row>
     <row r="77">
@@ -680,7 +680,7 @@
         <v>44986.0</v>
       </c>
       <c r="B77" t="n">
-        <v>2271.264735935708</v>
+        <v>2271.7087205961507</v>
       </c>
     </row>
     <row r="78">
@@ -688,7 +688,7 @@
         <v>45017.0</v>
       </c>
       <c r="B78" t="n">
-        <v>2419.8803963790715</v>
+        <v>2419.8836922529467</v>
       </c>
     </row>
     <row r="79">
@@ -696,7 +696,7 @@
         <v>45047.0</v>
       </c>
       <c r="B79" t="n">
-        <v>2499.4668653168187</v>
+        <v>2499.1974058727615</v>
       </c>
     </row>
     <row r="80">
@@ -704,7 +704,7 @@
         <v>45078.0</v>
       </c>
       <c r="B80" t="n">
-        <v>2601.7339641514213</v>
+        <v>2601.404836590888</v>
       </c>
     </row>
     <row r="81">
@@ -712,7 +712,7 @@
         <v>45108.0</v>
       </c>
       <c r="B81" t="n">
-        <v>2783.229673236065</v>
+        <v>2782.9600412793834</v>
       </c>
     </row>
     <row r="82">
@@ -720,7 +720,7 @@
         <v>45139.0</v>
       </c>
       <c r="B82" t="n">
-        <v>2953.6080476676443</v>
+        <v>2953.358667117176</v>
       </c>
     </row>
     <row r="83">
@@ -728,7 +728,7 @@
         <v>45170.0</v>
       </c>
       <c r="B83" t="n">
-        <v>3113.688276681982</v>
+        <v>3113.559898464363</v>
       </c>
     </row>
     <row r="84">
@@ -736,7 +736,7 @@
         <v>45200.0</v>
       </c>
       <c r="B84" t="n">
-        <v>3336.8147323136254</v>
+        <v>3336.7914004053887</v>
       </c>
     </row>
     <row r="85">
@@ -744,7 +744,7 @@
         <v>45231.0</v>
       </c>
       <c r="B85" t="n">
-        <v>3400.2051726815034</v>
+        <v>3400.280405168156</v>
       </c>
     </row>
     <row r="86">
@@ -752,7 +752,7 @@
         <v>45261.0</v>
       </c>
       <c r="B86" t="n">
-        <v>3555.4763531663557</v>
+        <v>3555.6754143556414</v>
       </c>
     </row>
     <row r="87">
@@ -760,7 +760,7 @@
         <v>45292.0</v>
       </c>
       <c r="B87" t="n">
-        <v>3719.949284930939</v>
+        <v>3720.400708064807</v>
       </c>
     </row>
     <row r="88">
@@ -768,7 +768,7 @@
         <v>45323.0</v>
       </c>
       <c r="B88" t="n">
-        <v>3963.3950254932324</v>
+        <v>3964.0242438836626</v>
       </c>
     </row>
     <row r="89">
@@ -776,7 +776,7 @@
         <v>45352.0</v>
       </c>
       <c r="B89" t="n">
-        <v>4196.955343360856</v>
+        <v>4197.960316693672</v>
       </c>
     </row>
     <row r="90">
@@ -784,7 +784,7 @@
         <v>45383.0</v>
       </c>
       <c r="B90" t="n">
-        <v>4306.466587194029</v>
+        <v>4306.422467327365</v>
       </c>
     </row>
     <row r="91">
@@ -792,7 +792,7 @@
         <v>45413.0</v>
       </c>
       <c r="B91" t="n">
-        <v>4364.257716001357</v>
+        <v>4363.644876701094</v>
       </c>
     </row>
     <row r="92">
@@ -800,7 +800,7 @@
         <v>45444.0</v>
       </c>
       <c r="B92" t="n">
-        <v>4331.396508716385</v>
+        <v>4330.689975272174</v>
       </c>
     </row>
     <row r="93">
@@ -808,7 +808,7 @@
         <v>45474.0</v>
       </c>
       <c r="B93" t="n">
-        <v>4394.827124366233</v>
+        <v>4394.265558255766</v>
       </c>
     </row>
     <row r="94">
@@ -816,7 +816,7 @@
         <v>45505.0</v>
       </c>
       <c r="B94" t="n">
-        <v>4437.024287992764</v>
+        <v>4436.538881932933</v>
       </c>
     </row>
     <row r="95">
@@ -824,7 +824,7 @@
         <v>45536.0</v>
       </c>
       <c r="B95" t="n">
-        <v>4671.963734649533</v>
+        <v>4671.758455557616</v>
       </c>
     </row>
     <row r="96">
@@ -832,7 +832,7 @@
         <v>45566.0</v>
       </c>
       <c r="B96" t="n">
-        <v>4692.57022559713</v>
+        <v>4692.545468536569</v>
       </c>
     </row>
     <row r="97">
@@ -840,7 +840,7 @@
         <v>45597.0</v>
       </c>
       <c r="B97" t="n">
-        <v>4896.8695375523375</v>
+        <v>4897.065986833674</v>
       </c>
     </row>
     <row r="98">
@@ -848,7 +848,7 @@
         <v>45627.0</v>
       </c>
       <c r="B98" t="n">
-        <v>5018.054027860931</v>
+        <v>5018.485691095877</v>
       </c>
     </row>
     <row r="99">
@@ -856,7 +856,7 @@
         <v>45658.0</v>
       </c>
       <c r="B99" t="n">
-        <v>5086.032196694227</v>
+        <v>5086.810763778714</v>
       </c>
     </row>
     <row r="100">
@@ -864,7 +864,7 @@
         <v>45689.0</v>
       </c>
       <c r="B100" t="n">
-        <v>5077.995269865931</v>
+        <v>5078.957188596454</v>
       </c>
     </row>
     <row r="101">
@@ -872,7 +872,7 @@
         <v>45717.0</v>
       </c>
       <c r="B101" t="n">
-        <v>5162.275037436075</v>
+        <v>5163.673588353431</v>
       </c>
     </row>
     <row r="102">
@@ -880,7 +880,7 @@
         <v>45748.0</v>
       </c>
       <c r="B102" t="n">
-        <v>5241.375425434459</v>
+        <v>5250.563059152033</v>
       </c>
     </row>
   </sheetData>

--- a/diğerişlenmemişma.xlsx
+++ b/diğerişlenmemişma.xlsx
@@ -80,7 +80,7 @@
         <v>42705.0</v>
       </c>
       <c r="B2" t="n">
-        <v>382.12275709888655</v>
+        <v>382.3909911084209</v>
       </c>
     </row>
     <row r="3">
@@ -88,7 +88,7 @@
         <v>42736.0</v>
       </c>
       <c r="B3" t="n">
-        <v>381.50314492794246</v>
+        <v>381.6264469066604</v>
       </c>
     </row>
     <row r="4">
@@ -96,7 +96,7 @@
         <v>42767.0</v>
       </c>
       <c r="B4" t="n">
-        <v>385.31227508425064</v>
+        <v>384.6591999914372</v>
       </c>
     </row>
     <row r="5">
@@ -104,7 +104,7 @@
         <v>42795.0</v>
       </c>
       <c r="B5" t="n">
-        <v>383.42081811497457</v>
+        <v>382.6643435999115</v>
       </c>
     </row>
     <row r="6">
@@ -112,7 +112,7 @@
         <v>42826.0</v>
       </c>
       <c r="B6" t="n">
-        <v>382.1696126374753</v>
+        <v>381.523556492696</v>
       </c>
     </row>
     <row r="7">
@@ -120,7 +120,7 @@
         <v>42856.0</v>
       </c>
       <c r="B7" t="n">
-        <v>387.3184501867037</v>
+        <v>387.151541262975</v>
       </c>
     </row>
     <row r="8">
@@ -128,7 +128,7 @@
         <v>42887.0</v>
       </c>
       <c r="B8" t="n">
-        <v>395.60071896185207</v>
+        <v>395.80812512061993</v>
       </c>
     </row>
     <row r="9">
@@ -136,7 +136,7 @@
         <v>42917.0</v>
       </c>
       <c r="B9" t="n">
-        <v>401.17400876543707</v>
+        <v>401.4043268743757</v>
       </c>
     </row>
     <row r="10">
@@ -144,7 +144,7 @@
         <v>42948.0</v>
       </c>
       <c r="B10" t="n">
-        <v>410.9600623620174</v>
+        <v>411.3319307723322</v>
       </c>
     </row>
     <row r="11">
@@ -152,7 +152,7 @@
         <v>42979.0</v>
       </c>
       <c r="B11" t="n">
-        <v>411.6351563189677</v>
+        <v>412.0180829004586</v>
       </c>
     </row>
     <row r="12">
@@ -160,7 +160,7 @@
         <v>43009.0</v>
       </c>
       <c r="B12" t="n">
-        <v>410.9339082171034</v>
+        <v>411.32054603272906</v>
       </c>
     </row>
     <row r="13">
@@ -168,7 +168,7 @@
         <v>43040.0</v>
       </c>
       <c r="B13" t="n">
-        <v>414.4881852256352</v>
+        <v>414.86813249983214</v>
       </c>
     </row>
     <row r="14">
@@ -176,7 +176,7 @@
         <v>43070.0</v>
       </c>
       <c r="B14" t="n">
-        <v>417.71378420200523</v>
+        <v>418.00846357182684</v>
       </c>
     </row>
     <row r="15">
@@ -184,7 +184,7 @@
         <v>43101.0</v>
       </c>
       <c r="B15" t="n">
-        <v>415.1497838432107</v>
+        <v>415.30084892432484</v>
       </c>
     </row>
     <row r="16">
@@ -192,7 +192,7 @@
         <v>43132.0</v>
       </c>
       <c r="B16" t="n">
-        <v>419.8157382908244</v>
+        <v>419.0791817587815</v>
       </c>
     </row>
     <row r="17">
@@ -200,7 +200,7 @@
         <v>43160.0</v>
       </c>
       <c r="B17" t="n">
-        <v>423.58293994608135</v>
+        <v>422.7410475013998</v>
       </c>
     </row>
     <row r="18">
@@ -208,7 +208,7 @@
         <v>43191.0</v>
       </c>
       <c r="B18" t="n">
-        <v>419.06950535304674</v>
+        <v>418.38945028367715</v>
       </c>
     </row>
     <row r="19">
@@ -216,7 +216,7 @@
         <v>43221.0</v>
       </c>
       <c r="B19" t="n">
-        <v>433.29334544199713</v>
+        <v>433.13868595290927</v>
       </c>
     </row>
     <row r="20">
@@ -224,7 +224,7 @@
         <v>43252.0</v>
       </c>
       <c r="B20" t="n">
-        <v>465.4762812288003</v>
+        <v>465.71692001126144</v>
       </c>
     </row>
     <row r="21">
@@ -232,7 +232,7 @@
         <v>43282.0</v>
       </c>
       <c r="B21" t="n">
-        <v>470.27214338943315</v>
+        <v>470.52780442299235</v>
       </c>
     </row>
     <row r="22">
@@ -240,7 +240,7 @@
         <v>43313.0</v>
       </c>
       <c r="B22" t="n">
-        <v>484.0175474825311</v>
+        <v>484.4011574859188</v>
       </c>
     </row>
     <row r="23">
@@ -248,7 +248,7 @@
         <v>43344.0</v>
       </c>
       <c r="B23" t="n">
-        <v>504.7478656752354</v>
+        <v>505.1702501294239</v>
       </c>
     </row>
     <row r="24">
@@ -256,7 +256,7 @@
         <v>43374.0</v>
       </c>
       <c r="B24" t="n">
-        <v>519.578081591233</v>
+        <v>520.0433214109705</v>
       </c>
     </row>
     <row r="25">
@@ -264,7 +264,7 @@
         <v>43405.0</v>
       </c>
       <c r="B25" t="n">
-        <v>519.4534533766739</v>
+        <v>519.9160946642895</v>
       </c>
     </row>
     <row r="26">
@@ -272,7 +272,7 @@
         <v>43435.0</v>
       </c>
       <c r="B26" t="n">
-        <v>521.8432102655466</v>
+        <v>522.218954513413</v>
       </c>
     </row>
     <row r="27">
@@ -280,7 +280,7 @@
         <v>43466.0</v>
       </c>
       <c r="B27" t="n">
-        <v>526.8633191768816</v>
+        <v>527.1264346263451</v>
       </c>
     </row>
     <row r="28">
@@ -288,7 +288,7 @@
         <v>43497.0</v>
       </c>
       <c r="B28" t="n">
-        <v>532.453703493156</v>
+        <v>531.498420307694</v>
       </c>
     </row>
     <row r="29">
@@ -296,7 +296,7 @@
         <v>43525.0</v>
       </c>
       <c r="B29" t="n">
-        <v>527.5651563201989</v>
+        <v>526.5520677525443</v>
       </c>
     </row>
     <row r="30">
@@ -304,7 +304,7 @@
         <v>43556.0</v>
       </c>
       <c r="B30" t="n">
-        <v>543.9399175835673</v>
+        <v>543.2076530224407</v>
       </c>
     </row>
     <row r="31">
@@ -312,7 +312,7 @@
         <v>43586.0</v>
       </c>
       <c r="B31" t="n">
-        <v>555.8357303618761</v>
+        <v>555.7735507919157</v>
       </c>
     </row>
     <row r="32">
@@ -320,7 +320,7 @@
         <v>43617.0</v>
       </c>
       <c r="B32" t="n">
-        <v>547.1384216355772</v>
+        <v>547.4137089802847</v>
       </c>
     </row>
     <row r="33">
@@ -328,7 +328,7 @@
         <v>43647.0</v>
       </c>
       <c r="B33" t="n">
-        <v>549.6218573324306</v>
+        <v>549.908864806118</v>
       </c>
     </row>
     <row r="34">
@@ -336,7 +336,7 @@
         <v>43678.0</v>
       </c>
       <c r="B34" t="n">
-        <v>547.7621901901372</v>
+        <v>548.1231968323983</v>
       </c>
     </row>
     <row r="35">
@@ -344,7 +344,7 @@
         <v>43709.0</v>
       </c>
       <c r="B35" t="n">
-        <v>545.6953014596081</v>
+        <v>546.0372865641843</v>
       </c>
     </row>
     <row r="36">
@@ -352,7 +352,7 @@
         <v>43739.0</v>
       </c>
       <c r="B36" t="n">
-        <v>546.9433395139325</v>
+        <v>547.3242523813044</v>
       </c>
     </row>
     <row r="37">
@@ -360,7 +360,7 @@
         <v>43770.0</v>
       </c>
       <c r="B37" t="n">
-        <v>550.6011692261224</v>
+        <v>551.0357842876607</v>
       </c>
     </row>
     <row r="38">
@@ -368,7 +368,7 @@
         <v>43800.0</v>
       </c>
       <c r="B38" t="n">
-        <v>563.7200552920098</v>
+        <v>564.1110828703652</v>
       </c>
     </row>
     <row r="39">
@@ -376,7 +376,7 @@
         <v>43831.0</v>
       </c>
       <c r="B39" t="n">
-        <v>566.8677602842873</v>
+        <v>567.221958071752</v>
       </c>
     </row>
     <row r="40">
@@ -384,7 +384,7 @@
         <v>43862.0</v>
       </c>
       <c r="B40" t="n">
-        <v>578.4073007413289</v>
+        <v>577.2917801039144</v>
       </c>
     </row>
     <row r="41">
@@ -392,7 +392,7 @@
         <v>43891.0</v>
       </c>
       <c r="B41" t="n">
-        <v>588.464089930461</v>
+        <v>587.3599901072138</v>
       </c>
     </row>
     <row r="42">
@@ -400,7 +400,7 @@
         <v>43922.0</v>
       </c>
       <c r="B42" t="n">
-        <v>601.7959441727662</v>
+        <v>601.1067180110106</v>
       </c>
     </row>
     <row r="43">
@@ -408,7 +408,7 @@
         <v>43952.0</v>
       </c>
       <c r="B43" t="n">
-        <v>608.650391820631</v>
+        <v>608.6747204298456</v>
       </c>
     </row>
     <row r="44">
@@ -416,7 +416,7 @@
         <v>43983.0</v>
       </c>
       <c r="B44" t="n">
-        <v>603.9264920726823</v>
+        <v>604.221496267785</v>
       </c>
     </row>
     <row r="45">
@@ -424,7 +424,7 @@
         <v>44013.0</v>
       </c>
       <c r="B45" t="n">
-        <v>614.7185026474341</v>
+        <v>615.0460292602395</v>
       </c>
     </row>
     <row r="46">
@@ -432,7 +432,7 @@
         <v>44044.0</v>
       </c>
       <c r="B46" t="n">
-        <v>623.2743006658849</v>
+        <v>623.64349109939</v>
       </c>
     </row>
     <row r="47">
@@ -440,7 +440,7 @@
         <v>44075.0</v>
       </c>
       <c r="B47" t="n">
-        <v>626.4725361730956</v>
+        <v>626.8008468328529</v>
       </c>
     </row>
     <row r="48">
@@ -448,7 +448,7 @@
         <v>44105.0</v>
       </c>
       <c r="B48" t="n">
-        <v>645.2006369220453</v>
+        <v>645.5963033507704</v>
       </c>
     </row>
     <row r="49">
@@ -456,7 +456,7 @@
         <v>44136.0</v>
       </c>
       <c r="B49" t="n">
-        <v>675.447208805841</v>
+        <v>675.9847716711868</v>
       </c>
     </row>
     <row r="50">
@@ -464,7 +464,7 @@
         <v>44166.0</v>
       </c>
       <c r="B50" t="n">
-        <v>690.5002043404806</v>
+        <v>690.991704538527</v>
       </c>
     </row>
     <row r="51">
@@ -472,7 +472,7 @@
         <v>44197.0</v>
       </c>
       <c r="B51" t="n">
-        <v>696.004940426995</v>
+        <v>696.5679569948664</v>
       </c>
     </row>
     <row r="52">
@@ -480,7 +480,7 @@
         <v>44228.0</v>
       </c>
       <c r="B52" t="n">
-        <v>707.7461573664928</v>
+        <v>706.2211872503149</v>
       </c>
     </row>
     <row r="53">
@@ -488,7 +488,7 @@
         <v>44256.0</v>
       </c>
       <c r="B53" t="n">
-        <v>704.4345409074464</v>
+        <v>703.0795376048404</v>
       </c>
     </row>
     <row r="54">
@@ -496,7 +496,7 @@
         <v>44287.0</v>
       </c>
       <c r="B54" t="n">
-        <v>692.036809972171</v>
+        <v>691.3150721183672</v>
       </c>
     </row>
     <row r="55">
@@ -504,7 +504,7 @@
         <v>44317.0</v>
       </c>
       <c r="B55" t="n">
-        <v>713.152644168714</v>
+        <v>713.2474519736884</v>
       </c>
     </row>
     <row r="56">
@@ -512,7 +512,7 @@
         <v>44348.0</v>
       </c>
       <c r="B56" t="n">
-        <v>745.7901243130517</v>
+        <v>746.1857227046233</v>
       </c>
     </row>
     <row r="57">
@@ -520,7 +520,7 @@
         <v>44378.0</v>
       </c>
       <c r="B57" t="n">
-        <v>771.6528513196666</v>
+        <v>772.1055649860206</v>
       </c>
     </row>
     <row r="58">
@@ -528,7 +528,7 @@
         <v>44409.0</v>
       </c>
       <c r="B58" t="n">
-        <v>802.065134549154</v>
+        <v>802.5263153122745</v>
       </c>
     </row>
     <row r="59">
@@ -536,7 +536,7 @@
         <v>44440.0</v>
       </c>
       <c r="B59" t="n">
-        <v>823.9661170529007</v>
+        <v>824.393006776632</v>
       </c>
     </row>
     <row r="60">
@@ -544,7 +544,7 @@
         <v>44470.0</v>
       </c>
       <c r="B60" t="n">
-        <v>843.7468116246984</v>
+        <v>844.2338810580861</v>
       </c>
     </row>
     <row r="61">
@@ -552,7 +552,7 @@
         <v>44501.0</v>
       </c>
       <c r="B61" t="n">
-        <v>888.1982486919485</v>
+        <v>888.8288515851463</v>
       </c>
     </row>
     <row r="62">
@@ -560,7 +560,7 @@
         <v>44531.0</v>
       </c>
       <c r="B62" t="n">
-        <v>1053.6603088918282</v>
+        <v>1054.291555955191</v>
       </c>
     </row>
     <row r="63">
@@ -568,7 +568,7 @@
         <v>44562.0</v>
       </c>
       <c r="B63" t="n">
-        <v>1117.6572341823512</v>
+        <v>1118.6570260519522</v>
       </c>
     </row>
     <row r="64">
@@ -576,7 +576,7 @@
         <v>44593.0</v>
       </c>
       <c r="B64" t="n">
-        <v>1146.2190631334795</v>
+        <v>1143.2689438713126</v>
       </c>
     </row>
     <row r="65">
@@ -584,7 +584,7 @@
         <v>44621.0</v>
       </c>
       <c r="B65" t="n">
-        <v>1222.1412716051962</v>
+        <v>1219.6425559046943</v>
       </c>
     </row>
     <row r="66">
@@ -592,7 +592,7 @@
         <v>44652.0</v>
       </c>
       <c r="B66" t="n">
-        <v>1352.9838400648282</v>
+        <v>1351.8311672348314</v>
       </c>
     </row>
     <row r="67">
@@ -600,7 +600,7 @@
         <v>44682.0</v>
       </c>
       <c r="B67" t="n">
-        <v>1411.6638533325502</v>
+        <v>1412.1691150882948</v>
       </c>
     </row>
     <row r="68">
@@ -608,7 +608,7 @@
         <v>44713.0</v>
       </c>
       <c r="B68" t="n">
-        <v>1477.689652435486</v>
+        <v>1478.6501902675843</v>
       </c>
     </row>
     <row r="69">
@@ -616,7 +616,7 @@
         <v>44743.0</v>
       </c>
       <c r="B69" t="n">
-        <v>1526.37556621312</v>
+        <v>1527.4410325527654</v>
       </c>
     </row>
     <row r="70">
@@ -624,7 +624,7 @@
         <v>44774.0</v>
       </c>
       <c r="B70" t="n">
-        <v>1567.908199531791</v>
+        <v>1568.8474802670048</v>
       </c>
     </row>
     <row r="71">
@@ -632,7 +632,7 @@
         <v>44805.0</v>
       </c>
       <c r="B71" t="n">
-        <v>1606.519581246099</v>
+        <v>1607.511101226494</v>
       </c>
     </row>
     <row r="72">
@@ -640,7 +640,7 @@
         <v>44835.0</v>
       </c>
       <c r="B72" t="n">
-        <v>1683.9827694915368</v>
+        <v>1685.1459105408032</v>
       </c>
     </row>
     <row r="73">
@@ -648,7 +648,7 @@
         <v>44866.0</v>
       </c>
       <c r="B73" t="n">
-        <v>1739.8028924833152</v>
+        <v>1741.0677000600683</v>
       </c>
     </row>
     <row r="74">
@@ -656,7 +656,7 @@
         <v>44896.0</v>
       </c>
       <c r="B74" t="n">
-        <v>1801.6612200613988</v>
+        <v>1802.7179529109014</v>
       </c>
     </row>
     <row r="75">
@@ -664,7 +664,7 @@
         <v>44927.0</v>
       </c>
       <c r="B75" t="n">
-        <v>1962.914150906362</v>
+        <v>1964.9097602266388</v>
       </c>
     </row>
     <row r="76">
@@ -672,7 +672,7 @@
         <v>44958.0</v>
       </c>
       <c r="B76" t="n">
-        <v>2097.483340381189</v>
+        <v>2091.1410067134693</v>
       </c>
     </row>
     <row r="77">
@@ -680,7 +680,7 @@
         <v>44986.0</v>
       </c>
       <c r="B77" t="n">
-        <v>2271.7087205961507</v>
+        <v>2266.554645711336</v>
       </c>
     </row>
     <row r="78">
@@ -688,7 +688,7 @@
         <v>45017.0</v>
       </c>
       <c r="B78" t="n">
-        <v>2419.8836922529467</v>
+        <v>2417.6357490273617</v>
       </c>
     </row>
     <row r="79">
@@ -696,7 +696,7 @@
         <v>45047.0</v>
       </c>
       <c r="B79" t="n">
-        <v>2499.1974058727615</v>
+        <v>2500.129982963283</v>
       </c>
     </row>
     <row r="80">
@@ -704,7 +704,7 @@
         <v>45078.0</v>
       </c>
       <c r="B80" t="n">
-        <v>2601.404836590888</v>
+        <v>2602.9557140977945</v>
       </c>
     </row>
     <row r="81">
@@ -712,7 +712,7 @@
         <v>45108.0</v>
       </c>
       <c r="B81" t="n">
-        <v>2782.9600412793834</v>
+        <v>2784.9044330450147</v>
       </c>
     </row>
     <row r="82">
@@ -720,7 +720,7 @@
         <v>45139.0</v>
       </c>
       <c r="B82" t="n">
-        <v>2953.358667117176</v>
+        <v>2955.160116624641</v>
       </c>
     </row>
     <row r="83">
@@ -728,7 +728,7 @@
         <v>45170.0</v>
       </c>
       <c r="B83" t="n">
-        <v>3113.559898464363</v>
+        <v>3116.1305427337606</v>
       </c>
     </row>
     <row r="84">
@@ -736,7 +736,7 @@
         <v>45200.0</v>
       </c>
       <c r="B84" t="n">
-        <v>3336.7914004053887</v>
+        <v>3339.901786494646</v>
       </c>
     </row>
     <row r="85">
@@ -744,7 +744,7 @@
         <v>45231.0</v>
       </c>
       <c r="B85" t="n">
-        <v>3400.280405168156</v>
+        <v>3403.603802926476</v>
       </c>
     </row>
     <row r="86">
@@ -752,7 +752,7 @@
         <v>45261.0</v>
       </c>
       <c r="B86" t="n">
-        <v>3555.6754143556414</v>
+        <v>3558.767338404904</v>
       </c>
     </row>
     <row r="87">
@@ -760,7 +760,7 @@
         <v>45292.0</v>
       </c>
       <c r="B87" t="n">
-        <v>3720.400708064807</v>
+        <v>3725.2461193612617</v>
       </c>
     </row>
     <row r="88">
@@ -768,7 +768,7 @@
         <v>45323.0</v>
       </c>
       <c r="B88" t="n">
-        <v>3964.0242438836626</v>
+        <v>3949.959230814034</v>
       </c>
     </row>
     <row r="89">
@@ -776,7 +776,7 @@
         <v>45352.0</v>
       </c>
       <c r="B89" t="n">
-        <v>4197.960316693672</v>
+        <v>4186.744512744527</v>
       </c>
     </row>
     <row r="90">
@@ -784,7 +784,7 @@
         <v>45383.0</v>
       </c>
       <c r="B90" t="n">
-        <v>4306.422467327365</v>
+        <v>4301.243224783106</v>
       </c>
     </row>
     <row r="91">
@@ -792,7 +792,7 @@
         <v>45413.0</v>
       </c>
       <c r="B91" t="n">
-        <v>4363.644876701094</v>
+        <v>4365.254093703656</v>
       </c>
     </row>
     <row r="92">
@@ -800,7 +800,7 @@
         <v>45444.0</v>
       </c>
       <c r="B92" t="n">
-        <v>4330.689975272174</v>
+        <v>4333.385105691909</v>
       </c>
     </row>
     <row r="93">
@@ -808,7 +808,7 @@
         <v>45474.0</v>
       </c>
       <c r="B93" t="n">
-        <v>4394.265558255766</v>
+        <v>4397.502389670086</v>
       </c>
     </row>
     <row r="94">
@@ -816,7 +816,7 @@
         <v>45505.0</v>
       </c>
       <c r="B94" t="n">
-        <v>4436.538881932933</v>
+        <v>4439.452009606832</v>
       </c>
     </row>
     <row r="95">
@@ -824,7 +824,7 @@
         <v>45536.0</v>
       </c>
       <c r="B95" t="n">
-        <v>4671.758455557616</v>
+        <v>4676.632651315986</v>
       </c>
     </row>
     <row r="96">
@@ -832,7 +832,7 @@
         <v>45566.0</v>
       </c>
       <c r="B96" t="n">
-        <v>4692.545468536569</v>
+        <v>4697.915166273245</v>
       </c>
     </row>
     <row r="97">
@@ -840,7 +840,7 @@
         <v>45597.0</v>
       </c>
       <c r="B97" t="n">
-        <v>4897.065986833674</v>
+        <v>4903.3719333928775</v>
       </c>
     </row>
     <row r="98">
@@ -848,7 +848,7 @@
         <v>45627.0</v>
       </c>
       <c r="B98" t="n">
-        <v>5018.485691095877</v>
+        <v>5024.832199526764</v>
       </c>
     </row>
     <row r="99">
@@ -856,7 +856,7 @@
         <v>45658.0</v>
       </c>
       <c r="B99" t="n">
-        <v>5086.810763778714</v>
+        <v>5095.003533089455</v>
       </c>
     </row>
     <row r="100">
@@ -864,7 +864,7 @@
         <v>45689.0</v>
       </c>
       <c r="B100" t="n">
-        <v>5078.957188596454</v>
+        <v>5215.698072535733</v>
       </c>
     </row>
     <row r="101">
@@ -872,7 +872,7 @@
         <v>45717.0</v>
       </c>
       <c r="B101" t="n">
-        <v>5163.673588353431</v>
+        <v>5296.647634073814</v>
       </c>
     </row>
     <row r="102">
@@ -880,7 +880,15 @@
         <v>45748.0</v>
       </c>
       <c r="B102" t="n">
-        <v>5250.563059152033</v>
+        <v>5352.837532325908</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="1" t="n">
+        <v>45778.0</v>
+      </c>
+      <c r="B103" t="n">
+        <v>5484.8052506811455</v>
       </c>
     </row>
   </sheetData>

--- a/diğerişlenmemişma.xlsx
+++ b/diğerişlenmemişma.xlsx
@@ -80,7 +80,7 @@
         <v>42705.0</v>
       </c>
       <c r="B2" t="n">
-        <v>382.3909911084209</v>
+        <v>381.91161406686575</v>
       </c>
     </row>
     <row r="3">
@@ -88,7 +88,7 @@
         <v>42736.0</v>
       </c>
       <c r="B3" t="n">
-        <v>381.6264469066604</v>
+        <v>381.52783178702873</v>
       </c>
     </row>
     <row r="4">
@@ -96,7 +96,7 @@
         <v>42767.0</v>
       </c>
       <c r="B4" t="n">
-        <v>384.6591999914372</v>
+        <v>385.2662701333956</v>
       </c>
     </row>
     <row r="5">
@@ -104,7 +104,7 @@
         <v>42795.0</v>
       </c>
       <c r="B5" t="n">
-        <v>382.6643435999115</v>
+        <v>383.59432785987747</v>
       </c>
     </row>
     <row r="6">
@@ -112,7 +112,7 @@
         <v>42826.0</v>
       </c>
       <c r="B6" t="n">
-        <v>381.523556492696</v>
+        <v>382.5637754441411</v>
       </c>
     </row>
     <row r="7">
@@ -120,7 +120,7 @@
         <v>42856.0</v>
       </c>
       <c r="B7" t="n">
-        <v>387.151541262975</v>
+        <v>387.6723329331426</v>
       </c>
     </row>
     <row r="8">
@@ -128,7 +128,7 @@
         <v>42887.0</v>
       </c>
       <c r="B8" t="n">
-        <v>395.80812512061993</v>
+        <v>395.634974087073</v>
       </c>
     </row>
     <row r="9">
@@ -136,7 +136,7 @@
         <v>42917.0</v>
       </c>
       <c r="B9" t="n">
-        <v>401.4043268743757</v>
+        <v>401.1795493148148</v>
       </c>
     </row>
     <row r="10">
@@ -144,7 +144,7 @@
         <v>42948.0</v>
       </c>
       <c r="B10" t="n">
-        <v>411.3319307723322</v>
+        <v>410.74975116956455</v>
       </c>
     </row>
     <row r="11">
@@ -152,7 +152,7 @@
         <v>42979.0</v>
       </c>
       <c r="B11" t="n">
-        <v>412.0180829004586</v>
+        <v>411.40625547586626</v>
       </c>
     </row>
     <row r="12">
@@ -160,7 +160,7 @@
         <v>43009.0</v>
       </c>
       <c r="B12" t="n">
-        <v>411.32054603272906</v>
+        <v>410.6996765445396</v>
       </c>
     </row>
     <row r="13">
@@ -168,7 +168,7 @@
         <v>43040.0</v>
       </c>
       <c r="B13" t="n">
-        <v>414.86813249983214</v>
+        <v>414.2682474364081</v>
       </c>
     </row>
     <row r="14">
@@ -176,7 +176,7 @@
         <v>43070.0</v>
       </c>
       <c r="B14" t="n">
-        <v>418.00846357182684</v>
+        <v>417.49362473109693</v>
       </c>
     </row>
     <row r="15">
@@ -184,7 +184,7 @@
         <v>43101.0</v>
       </c>
       <c r="B15" t="n">
-        <v>415.30084892432484</v>
+        <v>415.1637187514997</v>
       </c>
     </row>
     <row r="16">
@@ -192,7 +192,7 @@
         <v>43132.0</v>
       </c>
       <c r="B16" t="n">
-        <v>419.0791817587815</v>
+        <v>419.75965072231725</v>
       </c>
     </row>
     <row r="17">
@@ -200,7 +200,7 @@
         <v>43160.0</v>
       </c>
       <c r="B17" t="n">
-        <v>422.7410475013998</v>
+        <v>423.7396725189008</v>
       </c>
     </row>
     <row r="18">
@@ -208,7 +208,7 @@
         <v>43191.0</v>
       </c>
       <c r="B18" t="n">
-        <v>418.38945028367715</v>
+        <v>419.4306638244481</v>
       </c>
     </row>
     <row r="19">
@@ -216,7 +216,7 @@
         <v>43221.0</v>
       </c>
       <c r="B19" t="n">
-        <v>433.13868595290927</v>
+        <v>433.64645337925776</v>
       </c>
     </row>
     <row r="20">
@@ -224,7 +224,7 @@
         <v>43252.0</v>
       </c>
       <c r="B20" t="n">
-        <v>465.71692001126144</v>
+        <v>465.54306507925196</v>
       </c>
     </row>
     <row r="21">
@@ -232,7 +232,7 @@
         <v>43282.0</v>
       </c>
       <c r="B21" t="n">
-        <v>470.52780442299235</v>
+        <v>470.32563923182414</v>
       </c>
     </row>
     <row r="22">
@@ -240,7 +240,7 @@
         <v>43313.0</v>
       </c>
       <c r="B22" t="n">
-        <v>484.4011574859188</v>
+        <v>483.884864411923</v>
       </c>
     </row>
     <row r="23">
@@ -248,7 +248,7 @@
         <v>43344.0</v>
       </c>
       <c r="B23" t="n">
-        <v>505.1702501294239</v>
+        <v>504.57006869759346</v>
       </c>
     </row>
     <row r="24">
@@ -256,7 +256,7 @@
         <v>43374.0</v>
       </c>
       <c r="B24" t="n">
-        <v>520.0433214109705</v>
+        <v>519.346298880274</v>
       </c>
     </row>
     <row r="25">
@@ -264,7 +264,7 @@
         <v>43405.0</v>
       </c>
       <c r="B25" t="n">
-        <v>519.9160946642895</v>
+        <v>519.2282544967969</v>
       </c>
     </row>
     <row r="26">
@@ -272,7 +272,7 @@
         <v>43435.0</v>
       </c>
       <c r="B26" t="n">
-        <v>522.218954513413</v>
+        <v>521.5840739582254</v>
       </c>
     </row>
     <row r="27">
@@ -280,7 +280,7 @@
         <v>43466.0</v>
       </c>
       <c r="B27" t="n">
-        <v>527.1264346263451</v>
+        <v>526.7929961314089</v>
       </c>
     </row>
     <row r="28">
@@ -288,7 +288,7 @@
         <v>43497.0</v>
       </c>
       <c r="B28" t="n">
-        <v>531.498420307694</v>
+        <v>532.2871094576715</v>
       </c>
     </row>
     <row r="29">
@@ -296,7 +296,7 @@
         <v>43525.0</v>
       </c>
       <c r="B29" t="n">
-        <v>526.5520677525443</v>
+        <v>527.5836546206879</v>
       </c>
     </row>
     <row r="30">
@@ -304,7 +304,7 @@
         <v>43556.0</v>
       </c>
       <c r="B30" t="n">
-        <v>543.2076530224407</v>
+        <v>544.0841056755089</v>
       </c>
     </row>
     <row r="31">
@@ -312,7 +312,7 @@
         <v>43586.0</v>
       </c>
       <c r="B31" t="n">
-        <v>555.7735507919157</v>
+        <v>556.0804753280561</v>
       </c>
     </row>
     <row r="32">
@@ -320,7 +320,7 @@
         <v>43617.0</v>
       </c>
       <c r="B32" t="n">
-        <v>547.4137089802847</v>
+        <v>547.2831383809963</v>
       </c>
     </row>
     <row r="33">
@@ -328,7 +328,7 @@
         <v>43647.0</v>
       </c>
       <c r="B33" t="n">
-        <v>549.908864806118</v>
+        <v>549.7557021786648</v>
       </c>
     </row>
     <row r="34">
@@ -336,7 +336,7 @@
         <v>43678.0</v>
       </c>
       <c r="B34" t="n">
-        <v>548.1231968323983</v>
+        <v>547.7825538872461</v>
       </c>
     </row>
     <row r="35">
@@ -344,7 +344,7 @@
         <v>43709.0</v>
       </c>
       <c r="B35" t="n">
-        <v>546.0372865641843</v>
+        <v>545.746805366756</v>
       </c>
     </row>
     <row r="36">
@@ -352,7 +352,7 @@
         <v>43739.0</v>
       </c>
       <c r="B36" t="n">
-        <v>547.3242523813044</v>
+        <v>546.9339660756519</v>
       </c>
     </row>
     <row r="37">
@@ -360,7 +360,7 @@
         <v>43770.0</v>
       </c>
       <c r="B37" t="n">
-        <v>551.0357842876607</v>
+        <v>550.5088805684086</v>
       </c>
     </row>
     <row r="38">
@@ -368,7 +368,7 @@
         <v>43800.0</v>
       </c>
       <c r="B38" t="n">
-        <v>564.1110828703652</v>
+        <v>563.5084764947462</v>
       </c>
     </row>
     <row r="39">
@@ -376,7 +376,7 @@
         <v>43831.0</v>
       </c>
       <c r="B39" t="n">
-        <v>567.221958071752</v>
+        <v>566.7249142804292</v>
       </c>
     </row>
     <row r="40">
@@ -384,7 +384,7 @@
         <v>43862.0</v>
       </c>
       <c r="B40" t="n">
-        <v>577.2917801039144</v>
+        <v>578.1357945106049</v>
       </c>
     </row>
     <row r="41">
@@ -392,7 +392,7 @@
         <v>43891.0</v>
       </c>
       <c r="B41" t="n">
-        <v>587.3599901072138</v>
+        <v>588.230537049419</v>
       </c>
     </row>
     <row r="42">
@@ -400,7 +400,7 @@
         <v>43922.0</v>
       </c>
       <c r="B42" t="n">
-        <v>601.1067180110106</v>
+        <v>601.6297901289655</v>
       </c>
     </row>
     <row r="43">
@@ -408,7 +408,7 @@
         <v>43952.0</v>
       </c>
       <c r="B43" t="n">
-        <v>608.6747204298456</v>
+        <v>608.8021482780243</v>
       </c>
     </row>
     <row r="44">
@@ -416,7 +416,7 @@
         <v>43983.0</v>
       </c>
       <c r="B44" t="n">
-        <v>604.221496267785</v>
+        <v>604.1891271818882</v>
       </c>
     </row>
     <row r="45">
@@ -424,7 +424,7 @@
         <v>44013.0</v>
       </c>
       <c r="B45" t="n">
-        <v>615.0460292602395</v>
+        <v>614.9467624684058</v>
       </c>
     </row>
     <row r="46">
@@ -432,7 +432,7 @@
         <v>44044.0</v>
       </c>
       <c r="B46" t="n">
-        <v>623.64349109939</v>
+        <v>623.4518854349541</v>
       </c>
     </row>
     <row r="47">
@@ -440,7 +440,7 @@
         <v>44075.0</v>
       </c>
       <c r="B47" t="n">
-        <v>626.8008468328529</v>
+        <v>626.727669148271</v>
       </c>
     </row>
     <row r="48">
@@ -448,7 +448,7 @@
         <v>44105.0</v>
       </c>
       <c r="B48" t="n">
-        <v>645.5963033507704</v>
+        <v>645.3696869178771</v>
       </c>
     </row>
     <row r="49">
@@ -456,7 +456,7 @@
         <v>44136.0</v>
       </c>
       <c r="B49" t="n">
-        <v>675.9847716711868</v>
+        <v>675.4190465625185</v>
       </c>
     </row>
     <row r="50">
@@ -464,7 +464,7 @@
         <v>44166.0</v>
       </c>
       <c r="B50" t="n">
-        <v>690.991704538527</v>
+        <v>690.292914997118</v>
       </c>
     </row>
     <row r="51">
@@ -472,7 +472,7 @@
         <v>44197.0</v>
       </c>
       <c r="B51" t="n">
-        <v>696.5679569948664</v>
+        <v>695.6983383655208</v>
       </c>
     </row>
     <row r="52">
@@ -480,7 +480,7 @@
         <v>44228.0</v>
       </c>
       <c r="B52" t="n">
-        <v>706.2211872503149</v>
+        <v>707.299311822809</v>
       </c>
     </row>
     <row r="53">
@@ -488,7 +488,7 @@
         <v>44256.0</v>
       </c>
       <c r="B53" t="n">
-        <v>703.0795376048404</v>
+        <v>703.8543923398986</v>
       </c>
     </row>
     <row r="54">
@@ -496,7 +496,7 @@
         <v>44287.0</v>
       </c>
       <c r="B54" t="n">
-        <v>691.3150721183672</v>
+        <v>691.5251936047126</v>
       </c>
     </row>
     <row r="55">
@@ -504,7 +504,7 @@
         <v>44317.0</v>
       </c>
       <c r="B55" t="n">
-        <v>713.2474519736884</v>
+        <v>713.2800613030845</v>
       </c>
     </row>
     <row r="56">
@@ -512,7 +512,7 @@
         <v>44348.0</v>
       </c>
       <c r="B56" t="n">
-        <v>746.1857227046233</v>
+        <v>746.2125395634728</v>
       </c>
     </row>
     <row r="57">
@@ -520,7 +520,7 @@
         <v>44378.0</v>
       </c>
       <c r="B57" t="n">
-        <v>772.1055649860206</v>
+        <v>772.0274273091846</v>
       </c>
     </row>
     <row r="58">
@@ -528,7 +528,7 @@
         <v>44409.0</v>
       </c>
       <c r="B58" t="n">
-        <v>802.5263153122745</v>
+        <v>802.4728186475337</v>
       </c>
     </row>
     <row r="59">
@@ -536,7 +536,7 @@
         <v>44440.0</v>
       </c>
       <c r="B59" t="n">
-        <v>824.393006776632</v>
+        <v>824.4710391191011</v>
       </c>
     </row>
     <row r="60">
@@ -544,7 +544,7 @@
         <v>44470.0</v>
       </c>
       <c r="B60" t="n">
-        <v>844.2338810580861</v>
+        <v>844.1861654329441</v>
       </c>
     </row>
     <row r="61">
@@ -552,7 +552,7 @@
         <v>44501.0</v>
       </c>
       <c r="B61" t="n">
-        <v>888.8288515851463</v>
+        <v>888.4629098164891</v>
       </c>
     </row>
     <row r="62">
@@ -560,7 +560,7 @@
         <v>44531.0</v>
       </c>
       <c r="B62" t="n">
-        <v>1054.291555955191</v>
+        <v>1053.710454880631</v>
       </c>
     </row>
     <row r="63">
@@ -568,7 +568,7 @@
         <v>44562.0</v>
       </c>
       <c r="B63" t="n">
-        <v>1118.6570260519522</v>
+        <v>1117.18495430258</v>
       </c>
     </row>
     <row r="64">
@@ -576,7 +576,7 @@
         <v>44593.0</v>
       </c>
       <c r="B64" t="n">
-        <v>1143.2689438713126</v>
+        <v>1145.4918821490378</v>
       </c>
     </row>
     <row r="65">
@@ -584,7 +584,7 @@
         <v>44621.0</v>
       </c>
       <c r="B65" t="n">
-        <v>1219.6425559046943</v>
+        <v>1220.5577470691592</v>
       </c>
     </row>
     <row r="66">
@@ -592,7 +592,7 @@
         <v>44652.0</v>
       </c>
       <c r="B66" t="n">
-        <v>1351.8311672348314</v>
+        <v>1350.9889520301851</v>
       </c>
     </row>
     <row r="67">
@@ -600,7 +600,7 @@
         <v>44682.0</v>
       </c>
       <c r="B67" t="n">
-        <v>1412.1691150882948</v>
+        <v>1411.5192676636548</v>
       </c>
     </row>
     <row r="68">
@@ -608,7 +608,7 @@
         <v>44713.0</v>
       </c>
       <c r="B68" t="n">
-        <v>1478.6501902675843</v>
+        <v>1478.622869720586</v>
       </c>
     </row>
     <row r="69">
@@ -616,7 +616,7 @@
         <v>44743.0</v>
       </c>
       <c r="B69" t="n">
-        <v>1527.4410325527654</v>
+        <v>1527.2239653283768</v>
       </c>
     </row>
     <row r="70">
@@ -624,7 +624,7 @@
         <v>44774.0</v>
       </c>
       <c r="B70" t="n">
-        <v>1568.8474802670048</v>
+        <v>1569.024955230298</v>
       </c>
     </row>
     <row r="71">
@@ -632,7 +632,7 @@
         <v>44805.0</v>
       </c>
       <c r="B71" t="n">
-        <v>1607.511101226494</v>
+        <v>1607.623012529373</v>
       </c>
     </row>
     <row r="72">
@@ -640,7 +640,7 @@
         <v>44835.0</v>
       </c>
       <c r="B72" t="n">
-        <v>1685.1459105408032</v>
+        <v>1684.9159983195111</v>
       </c>
     </row>
     <row r="73">
@@ -648,7 +648,7 @@
         <v>44866.0</v>
       </c>
       <c r="B73" t="n">
-        <v>1741.0677000600683</v>
+        <v>1740.6541073437807</v>
       </c>
     </row>
     <row r="74">
@@ -656,7 +656,7 @@
         <v>44896.0</v>
       </c>
       <c r="B74" t="n">
-        <v>1802.7179529109014</v>
+        <v>1802.219336825022</v>
       </c>
     </row>
     <row r="75">
@@ -664,7 +664,7 @@
         <v>44927.0</v>
       </c>
       <c r="B75" t="n">
-        <v>1964.9097602266388</v>
+        <v>1962.1587222152432</v>
       </c>
     </row>
     <row r="76">
@@ -672,7 +672,7 @@
         <v>44958.0</v>
       </c>
       <c r="B76" t="n">
-        <v>2091.1410067134693</v>
+        <v>2095.8510785583453</v>
       </c>
     </row>
     <row r="77">
@@ -680,7 +680,7 @@
         <v>44986.0</v>
       </c>
       <c r="B77" t="n">
-        <v>2266.554645711336</v>
+        <v>2267.6422226705813</v>
       </c>
     </row>
     <row r="78">
@@ -688,7 +688,7 @@
         <v>45017.0</v>
       </c>
       <c r="B78" t="n">
-        <v>2417.6357490273617</v>
+        <v>2415.3521875803967</v>
       </c>
     </row>
     <row r="79">
@@ -696,7 +696,7 @@
         <v>45047.0</v>
       </c>
       <c r="B79" t="n">
-        <v>2500.129982963283</v>
+        <v>2499.213029794935</v>
       </c>
     </row>
     <row r="80">
@@ -704,7 +704,7 @@
         <v>45078.0</v>
       </c>
       <c r="B80" t="n">
-        <v>2602.9557140977945</v>
+        <v>2604.215737315903</v>
       </c>
     </row>
     <row r="81">
@@ -712,7 +712,7 @@
         <v>45108.0</v>
       </c>
       <c r="B81" t="n">
-        <v>2784.9044330450147</v>
+        <v>2785.4603237001315</v>
       </c>
     </row>
     <row r="82">
@@ -720,7 +720,7 @@
         <v>45139.0</v>
       </c>
       <c r="B82" t="n">
-        <v>2955.160116624641</v>
+        <v>2956.3633376236867</v>
       </c>
     </row>
     <row r="83">
@@ -728,7 +728,7 @@
         <v>45170.0</v>
       </c>
       <c r="B83" t="n">
-        <v>3116.1305427337606</v>
+        <v>3115.575912167789</v>
       </c>
     </row>
     <row r="84">
@@ -736,7 +736,7 @@
         <v>45200.0</v>
       </c>
       <c r="B84" t="n">
-        <v>3339.901786494646</v>
+        <v>3338.2702136964417</v>
       </c>
     </row>
     <row r="85">
@@ -744,7 +744,7 @@
         <v>45231.0</v>
       </c>
       <c r="B85" t="n">
-        <v>3403.603802926476</v>
+        <v>3401.4636861126955</v>
       </c>
     </row>
     <row r="86">
@@ -752,7 +752,7 @@
         <v>45261.0</v>
       </c>
       <c r="B86" t="n">
-        <v>3558.767338404904</v>
+        <v>3556.118421437955</v>
       </c>
     </row>
     <row r="87">
@@ -760,7 +760,7 @@
         <v>45292.0</v>
       </c>
       <c r="B87" t="n">
-        <v>3725.2461193612617</v>
+        <v>3718.2512676985093</v>
       </c>
     </row>
     <row r="88">
@@ -768,7 +768,7 @@
         <v>45323.0</v>
       </c>
       <c r="B88" t="n">
-        <v>3949.959230814034</v>
+        <v>3959.8744552581775</v>
       </c>
     </row>
     <row r="89">
@@ -776,7 +776,7 @@
         <v>45352.0</v>
       </c>
       <c r="B89" t="n">
-        <v>4186.744512744527</v>
+        <v>4188.572423241379</v>
       </c>
     </row>
     <row r="90">
@@ -784,7 +784,7 @@
         <v>45383.0</v>
       </c>
       <c r="B90" t="n">
-        <v>4301.243224783106</v>
+        <v>4297.364548395704</v>
       </c>
     </row>
     <row r="91">
@@ -792,7 +792,7 @@
         <v>45413.0</v>
       </c>
       <c r="B91" t="n">
-        <v>4365.254093703656</v>
+        <v>4364.409696462419</v>
       </c>
     </row>
     <row r="92">
@@ -800,7 +800,7 @@
         <v>45444.0</v>
       </c>
       <c r="B92" t="n">
-        <v>4333.385105691909</v>
+        <v>4337.161344721526</v>
       </c>
     </row>
     <row r="93">
@@ -808,7 +808,7 @@
         <v>45474.0</v>
       </c>
       <c r="B93" t="n">
-        <v>4397.502389670086</v>
+        <v>4399.894637550767</v>
       </c>
     </row>
     <row r="94">
@@ -816,7 +816,7 @@
         <v>45505.0</v>
       </c>
       <c r="B94" t="n">
-        <v>4439.452009606832</v>
+        <v>4442.592990443122</v>
       </c>
     </row>
     <row r="95">
@@ -824,7 +824,7 @@
         <v>45536.0</v>
       </c>
       <c r="B95" t="n">
-        <v>4676.632651315986</v>
+        <v>4674.96504988698</v>
       </c>
     </row>
     <row r="96">
@@ -832,7 +832,7 @@
         <v>45566.0</v>
       </c>
       <c r="B96" t="n">
-        <v>4697.915166273245</v>
+        <v>4694.808579708797</v>
       </c>
     </row>
     <row r="97">
@@ -840,7 +840,7 @@
         <v>45597.0</v>
       </c>
       <c r="B97" t="n">
-        <v>4903.3719333928775</v>
+        <v>4897.964524891452</v>
       </c>
     </row>
     <row r="98">
@@ -848,7 +848,7 @@
         <v>45627.0</v>
       </c>
       <c r="B98" t="n">
-        <v>5024.832199526764</v>
+        <v>5017.686711557166</v>
       </c>
     </row>
     <row r="99">
@@ -856,7 +856,7 @@
         <v>45658.0</v>
       </c>
       <c r="B99" t="n">
-        <v>5095.003533089455</v>
+        <v>5082.692393975764</v>
       </c>
     </row>
     <row r="100">
@@ -864,7 +864,7 @@
         <v>45689.0</v>
       </c>
       <c r="B100" t="n">
-        <v>5215.698072535733</v>
+        <v>5079.533705523983</v>
       </c>
     </row>
     <row r="101">
@@ -872,7 +872,7 @@
         <v>45717.0</v>
       </c>
       <c r="B101" t="n">
-        <v>5296.647634073814</v>
+        <v>5166.197062071272</v>
       </c>
     </row>
     <row r="102">
@@ -880,7 +880,7 @@
         <v>45748.0</v>
       </c>
       <c r="B102" t="n">
-        <v>5352.837532325908</v>
+        <v>5239.166532600722</v>
       </c>
     </row>
     <row r="103">
@@ -888,7 +888,7 @@
         <v>45778.0</v>
       </c>
       <c r="B103" t="n">
-        <v>5484.8052506811455</v>
+        <v>5374.17529269553</v>
       </c>
     </row>
   </sheetData>

--- a/diğerişlenmemişma.xlsx
+++ b/diğerişlenmemişma.xlsx
@@ -80,7 +80,7 @@
         <v>42705.0</v>
       </c>
       <c r="B2" t="n">
-        <v>381.91161406686575</v>
+        <v>381.70748089907977</v>
       </c>
     </row>
     <row r="3">
@@ -88,7 +88,7 @@
         <v>42736.0</v>
       </c>
       <c r="B3" t="n">
-        <v>381.52783178702873</v>
+        <v>381.62638963044134</v>
       </c>
     </row>
     <row r="4">
@@ -96,7 +96,7 @@
         <v>42767.0</v>
       </c>
       <c r="B4" t="n">
-        <v>385.2662701333956</v>
+        <v>385.3250715023618</v>
       </c>
     </row>
     <row r="5">
@@ -104,7 +104,7 @@
         <v>42795.0</v>
       </c>
       <c r="B5" t="n">
-        <v>383.59432785987747</v>
+        <v>383.93515560081664</v>
       </c>
     </row>
     <row r="6">
@@ -112,7 +112,7 @@
         <v>42826.0</v>
       </c>
       <c r="B6" t="n">
-        <v>382.5637754441411</v>
+        <v>383.03002098789085</v>
       </c>
     </row>
     <row r="7">
@@ -120,7 +120,7 @@
         <v>42856.0</v>
       </c>
       <c r="B7" t="n">
-        <v>387.6723329331426</v>
+        <v>388.04516480827004</v>
       </c>
     </row>
     <row r="8">
@@ -128,7 +128,7 @@
         <v>42887.0</v>
       </c>
       <c r="B8" t="n">
-        <v>395.634974087073</v>
+        <v>395.5880839059787</v>
       </c>
     </row>
     <row r="9">
@@ -136,7 +136,7 @@
         <v>42917.0</v>
       </c>
       <c r="B9" t="n">
-        <v>401.1795493148148</v>
+        <v>401.0994699041488</v>
       </c>
     </row>
     <row r="10">
@@ -144,7 +144,7 @@
         <v>42948.0</v>
       </c>
       <c r="B10" t="n">
-        <v>410.74975116956455</v>
+        <v>410.42378723534677</v>
       </c>
     </row>
     <row r="11">
@@ -152,7 +152,7 @@
         <v>42979.0</v>
       </c>
       <c r="B11" t="n">
-        <v>411.40625547586626</v>
+        <v>411.0811181669306</v>
       </c>
     </row>
     <row r="12">
@@ -160,7 +160,7 @@
         <v>43009.0</v>
       </c>
       <c r="B12" t="n">
-        <v>410.6996765445396</v>
+        <v>410.4016111296566</v>
       </c>
     </row>
     <row r="13">
@@ -168,7 +168,7 @@
         <v>43040.0</v>
       </c>
       <c r="B13" t="n">
-        <v>414.2682474364081</v>
+        <v>414.025058464653</v>
       </c>
     </row>
     <row r="14">
@@ -176,7 +176,7 @@
         <v>43070.0</v>
       </c>
       <c r="B14" t="n">
-        <v>417.49362473109693</v>
+        <v>417.28235559977014</v>
       </c>
     </row>
     <row r="15">
@@ -184,7 +184,7 @@
         <v>43101.0</v>
       </c>
       <c r="B15" t="n">
-        <v>415.1637187514997</v>
+        <v>415.25803459509626</v>
       </c>
     </row>
     <row r="16">
@@ -192,7 +192,7 @@
         <v>43132.0</v>
       </c>
       <c r="B16" t="n">
-        <v>419.75965072231725</v>
+        <v>419.8229012765431</v>
       </c>
     </row>
     <row r="17">
@@ -200,7 +200,7 @@
         <v>43160.0</v>
       </c>
       <c r="B17" t="n">
-        <v>423.7396725189008</v>
+        <v>424.08221848077324</v>
       </c>
     </row>
     <row r="18">
@@ -208,7 +208,7 @@
         <v>43191.0</v>
       </c>
       <c r="B18" t="n">
-        <v>419.4306638244481</v>
+        <v>419.8521392983259</v>
       </c>
     </row>
     <row r="19">
@@ -216,7 +216,7 @@
         <v>43221.0</v>
       </c>
       <c r="B19" t="n">
-        <v>433.64645337925776</v>
+        <v>434.0084754813789</v>
       </c>
     </row>
     <row r="20">
@@ -224,7 +224,7 @@
         <v>43252.0</v>
       </c>
       <c r="B20" t="n">
-        <v>465.54306507925196</v>
+        <v>465.517541685859</v>
       </c>
     </row>
     <row r="21">
@@ -232,7 +232,7 @@
         <v>43282.0</v>
       </c>
       <c r="B21" t="n">
-        <v>470.32563923182414</v>
+        <v>470.28864628969785</v>
       </c>
     </row>
     <row r="22">
@@ -240,7 +240,7 @@
         <v>43313.0</v>
       </c>
       <c r="B22" t="n">
-        <v>483.884864411923</v>
+        <v>483.6465649065131</v>
       </c>
     </row>
     <row r="23">
@@ -248,7 +248,7 @@
         <v>43344.0</v>
       </c>
       <c r="B23" t="n">
-        <v>504.57006869759346</v>
+        <v>504.3000504143854</v>
       </c>
     </row>
     <row r="24">
@@ -256,7 +256,7 @@
         <v>43374.0</v>
       </c>
       <c r="B24" t="n">
-        <v>519.346298880274</v>
+        <v>519.0459950146853</v>
       </c>
     </row>
     <row r="25">
@@ -264,7 +264,7 @@
         <v>43405.0</v>
       </c>
       <c r="B25" t="n">
-        <v>519.2282544967969</v>
+        <v>518.9830090532159</v>
       </c>
     </row>
     <row r="26">
@@ -272,7 +272,7 @@
         <v>43435.0</v>
       </c>
       <c r="B26" t="n">
-        <v>521.5840739582254</v>
+        <v>521.3377116863234</v>
       </c>
     </row>
     <row r="27">
@@ -280,7 +280,7 @@
         <v>43466.0</v>
       </c>
       <c r="B27" t="n">
-        <v>526.7929961314089</v>
+        <v>526.804793310285</v>
       </c>
     </row>
     <row r="28">
@@ -288,7 +288,7 @@
         <v>43497.0</v>
       </c>
       <c r="B28" t="n">
-        <v>532.2871094576715</v>
+        <v>532.2552556216838</v>
       </c>
     </row>
     <row r="29">
@@ -296,7 +296,7 @@
         <v>43525.0</v>
       </c>
       <c r="B29" t="n">
-        <v>527.5836546206879</v>
+        <v>527.8017999773999</v>
       </c>
     </row>
     <row r="30">
@@ -304,7 +304,7 @@
         <v>43556.0</v>
       </c>
       <c r="B30" t="n">
-        <v>544.0841056755089</v>
+        <v>544.2020472239892</v>
       </c>
     </row>
     <row r="31">
@@ -312,7 +312,7 @@
         <v>43586.0</v>
       </c>
       <c r="B31" t="n">
-        <v>556.0804753280561</v>
+        <v>556.2659886476234</v>
       </c>
     </row>
     <row r="32">
@@ -320,7 +320,7 @@
         <v>43617.0</v>
       </c>
       <c r="B32" t="n">
-        <v>547.2831383809963</v>
+        <v>547.3295151993516</v>
       </c>
     </row>
     <row r="33">
@@ -328,7 +328,7 @@
         <v>43647.0</v>
       </c>
       <c r="B33" t="n">
-        <v>549.7557021786648</v>
+        <v>549.7945570083835</v>
       </c>
     </row>
     <row r="34">
@@ -336,7 +336,7 @@
         <v>43678.0</v>
       </c>
       <c r="B34" t="n">
-        <v>547.7825538872461</v>
+        <v>547.7239866432682</v>
       </c>
     </row>
     <row r="35">
@@ -344,7 +344,7 @@
         <v>43709.0</v>
       </c>
       <c r="B35" t="n">
-        <v>545.746805366756</v>
+        <v>545.7688263561566</v>
       </c>
     </row>
     <row r="36">
@@ -352,7 +352,7 @@
         <v>43739.0</v>
       </c>
       <c r="B36" t="n">
-        <v>546.9339660756519</v>
+        <v>546.9222770589537</v>
       </c>
     </row>
     <row r="37">
@@ -360,7 +360,7 @@
         <v>43770.0</v>
       </c>
       <c r="B37" t="n">
-        <v>550.5088805684086</v>
+        <v>550.4374274334988</v>
       </c>
     </row>
     <row r="38">
@@ -368,7 +368,7 @@
         <v>43800.0</v>
       </c>
       <c r="B38" t="n">
-        <v>563.5084764947462</v>
+        <v>563.3311483370278</v>
       </c>
     </row>
     <row r="39">
@@ -376,7 +376,7 @@
         <v>43831.0</v>
       </c>
       <c r="B39" t="n">
-        <v>566.7249142804292</v>
+        <v>566.6655053514394</v>
       </c>
     </row>
     <row r="40">
@@ -384,7 +384,7 @@
         <v>43862.0</v>
       </c>
       <c r="B40" t="n">
-        <v>578.1357945106049</v>
+        <v>578.0070633739872</v>
       </c>
     </row>
     <row r="41">
@@ -392,7 +392,7 @@
         <v>43891.0</v>
       </c>
       <c r="B41" t="n">
-        <v>588.230537049419</v>
+        <v>588.178594016077</v>
       </c>
     </row>
     <row r="42">
@@ -400,7 +400,7 @@
         <v>43922.0</v>
       </c>
       <c r="B42" t="n">
-        <v>601.6297901289655</v>
+        <v>601.3314589868438</v>
       </c>
     </row>
     <row r="43">
@@ -408,7 +408,7 @@
         <v>43952.0</v>
       </c>
       <c r="B43" t="n">
-        <v>608.8021482780243</v>
+        <v>608.8519016768777</v>
       </c>
     </row>
     <row r="44">
@@ -416,7 +416,7 @@
         <v>43983.0</v>
       </c>
       <c r="B44" t="n">
-        <v>604.1891271818882</v>
+        <v>604.3591605286342</v>
       </c>
     </row>
     <row r="45">
@@ -424,7 +424,7 @@
         <v>44013.0</v>
       </c>
       <c r="B45" t="n">
-        <v>614.9467624684058</v>
+        <v>615.073939907704</v>
       </c>
     </row>
     <row r="46">
@@ -432,7 +432,7 @@
         <v>44044.0</v>
       </c>
       <c r="B46" t="n">
-        <v>623.4518854349541</v>
+        <v>623.5647693916868</v>
       </c>
     </row>
     <row r="47">
@@ -440,7 +440,7 @@
         <v>44075.0</v>
       </c>
       <c r="B47" t="n">
-        <v>626.727669148271</v>
+        <v>626.9959456229045</v>
       </c>
     </row>
     <row r="48">
@@ -448,7 +448,7 @@
         <v>44105.0</v>
       </c>
       <c r="B48" t="n">
-        <v>645.3696869178771</v>
+        <v>645.5815831715855</v>
       </c>
     </row>
     <row r="49">
@@ -456,7 +456,7 @@
         <v>44136.0</v>
       </c>
       <c r="B49" t="n">
-        <v>675.4190465625185</v>
+        <v>675.4332566117118</v>
       </c>
     </row>
     <row r="50">
@@ -464,7 +464,7 @@
         <v>44166.0</v>
       </c>
       <c r="B50" t="n">
-        <v>690.292914997118</v>
+        <v>690.1419896205466</v>
       </c>
     </row>
     <row r="51">
@@ -472,7 +472,7 @@
         <v>44197.0</v>
       </c>
       <c r="B51" t="n">
-        <v>695.6983383655208</v>
+        <v>695.4758793271596</v>
       </c>
     </row>
     <row r="52">
@@ -480,7 +480,7 @@
         <v>44228.0</v>
       </c>
       <c r="B52" t="n">
-        <v>707.299311822809</v>
+        <v>707.0316721602018</v>
       </c>
     </row>
     <row r="53">
@@ -488,7 +488,7 @@
         <v>44256.0</v>
       </c>
       <c r="B53" t="n">
-        <v>703.8543923398986</v>
+        <v>703.4579816255781</v>
       </c>
     </row>
     <row r="54">
@@ -496,7 +496,7 @@
         <v>44287.0</v>
       </c>
       <c r="B54" t="n">
-        <v>691.5251936047126</v>
+        <v>690.7521544672709</v>
       </c>
     </row>
     <row r="55">
@@ -504,7 +504,7 @@
         <v>44317.0</v>
       </c>
       <c r="B55" t="n">
-        <v>713.2800613030845</v>
+        <v>713.2700316038812</v>
       </c>
     </row>
     <row r="56">
@@ -512,7 +512,7 @@
         <v>44348.0</v>
       </c>
       <c r="B56" t="n">
-        <v>746.2125395634728</v>
+        <v>746.523294578299</v>
       </c>
     </row>
     <row r="57">
@@ -520,7 +520,7 @@
         <v>44378.0</v>
       </c>
       <c r="B57" t="n">
-        <v>772.0274273091846</v>
+        <v>772.2705626320314</v>
       </c>
     </row>
     <row r="58">
@@ -528,7 +528,7 @@
         <v>44409.0</v>
       </c>
       <c r="B58" t="n">
-        <v>802.4728186475337</v>
+        <v>802.8179330227791</v>
       </c>
     </row>
     <row r="59">
@@ -536,7 +536,7 @@
         <v>44440.0</v>
       </c>
       <c r="B59" t="n">
-        <v>824.4710391191011</v>
+        <v>825.0248713553875</v>
       </c>
     </row>
     <row r="60">
@@ -544,7 +544,7 @@
         <v>44470.0</v>
       </c>
       <c r="B60" t="n">
-        <v>844.1861654329441</v>
+        <v>844.7403413492133</v>
       </c>
     </row>
     <row r="61">
@@ -552,7 +552,7 @@
         <v>44501.0</v>
       </c>
       <c r="B61" t="n">
-        <v>888.4629098164891</v>
+        <v>888.8819598990342</v>
       </c>
     </row>
     <row r="62">
@@ -560,7 +560,7 @@
         <v>44531.0</v>
       </c>
       <c r="B62" t="n">
-        <v>1053.710454880631</v>
+        <v>1053.9827850583588</v>
       </c>
     </row>
     <row r="63">
@@ -568,7 +568,7 @@
         <v>44562.0</v>
       </c>
       <c r="B63" t="n">
-        <v>1117.18495430258</v>
+        <v>1116.9129089393973</v>
       </c>
     </row>
     <row r="64">
@@ -576,7 +576,7 @@
         <v>44593.0</v>
       </c>
       <c r="B64" t="n">
-        <v>1145.4918821490378</v>
+        <v>1145.148077807626</v>
       </c>
     </row>
     <row r="65">
@@ -584,7 +584,7 @@
         <v>44621.0</v>
       </c>
       <c r="B65" t="n">
-        <v>1220.5577470691592</v>
+        <v>1219.230582744379</v>
       </c>
     </row>
     <row r="66">
@@ -592,7 +592,7 @@
         <v>44652.0</v>
       </c>
       <c r="B66" t="n">
-        <v>1350.9889520301851</v>
+        <v>1348.0882106053461</v>
       </c>
     </row>
     <row r="67">
@@ -600,7 +600,7 @@
         <v>44682.0</v>
       </c>
       <c r="B67" t="n">
-        <v>1411.5192676636548</v>
+        <v>1410.9363788167507</v>
       </c>
     </row>
     <row r="68">
@@ -608,7 +608,7 @@
         <v>44713.0</v>
       </c>
       <c r="B68" t="n">
-        <v>1478.622869720586</v>
+        <v>1479.2926674964065</v>
       </c>
     </row>
     <row r="69">
@@ -616,7 +616,7 @@
         <v>44743.0</v>
       </c>
       <c r="B69" t="n">
-        <v>1527.2239653283768</v>
+        <v>1527.7639719021643</v>
       </c>
     </row>
     <row r="70">
@@ -624,7 +624,7 @@
         <v>44774.0</v>
       </c>
       <c r="B70" t="n">
-        <v>1569.024955230298</v>
+        <v>1570.0446224688963</v>
       </c>
     </row>
     <row r="71">
@@ -632,7 +632,7 @@
         <v>44805.0</v>
       </c>
       <c r="B71" t="n">
-        <v>1607.623012529373</v>
+        <v>1608.8155423000924</v>
       </c>
     </row>
     <row r="72">
@@ -640,7 +640,7 @@
         <v>44835.0</v>
       </c>
       <c r="B72" t="n">
-        <v>1684.9159983195111</v>
+        <v>1686.0716617047678</v>
       </c>
     </row>
     <row r="73">
@@ -648,7 +648,7 @@
         <v>44866.0</v>
       </c>
       <c r="B73" t="n">
-        <v>1740.6541073437807</v>
+        <v>1741.9265903106993</v>
       </c>
     </row>
     <row r="74">
@@ -656,7 +656,7 @@
         <v>44896.0</v>
       </c>
       <c r="B74" t="n">
-        <v>1802.219336825022</v>
+        <v>1803.3612301236055</v>
       </c>
     </row>
     <row r="75">
@@ -664,7 +664,7 @@
         <v>44927.0</v>
       </c>
       <c r="B75" t="n">
-        <v>1962.1587222152432</v>
+        <v>1961.9058067619965</v>
       </c>
     </row>
     <row r="76">
@@ -672,7 +672,7 @@
         <v>44958.0</v>
       </c>
       <c r="B76" t="n">
-        <v>2095.8510785583453</v>
+        <v>2095.020682805847</v>
       </c>
     </row>
     <row r="77">
@@ -680,7 +680,7 @@
         <v>44986.0</v>
       </c>
       <c r="B77" t="n">
-        <v>2267.6422226705813</v>
+        <v>2263.933526169493</v>
       </c>
     </row>
     <row r="78">
@@ -688,7 +688,7 @@
         <v>45017.0</v>
       </c>
       <c r="B78" t="n">
-        <v>2415.3521875803967</v>
+        <v>2408.666851046571</v>
       </c>
     </row>
     <row r="79">
@@ -696,7 +696,7 @@
         <v>45047.0</v>
       </c>
       <c r="B79" t="n">
-        <v>2499.213029794935</v>
+        <v>2498.4733020649655</v>
       </c>
     </row>
     <row r="80">
@@ -704,7 +704,7 @@
         <v>45078.0</v>
       </c>
       <c r="B80" t="n">
-        <v>2604.215737315903</v>
+        <v>2606.849577351669</v>
       </c>
     </row>
     <row r="81">
@@ -712,7 +712,7 @@
         <v>45108.0</v>
       </c>
       <c r="B81" t="n">
-        <v>2785.4603237001315</v>
+        <v>2787.570666927121</v>
       </c>
     </row>
     <row r="82">
@@ -720,7 +720,7 @@
         <v>45139.0</v>
       </c>
       <c r="B82" t="n">
-        <v>2956.3633376236867</v>
+        <v>2959.3483410509793</v>
       </c>
     </row>
     <row r="83">
@@ -728,7 +728,7 @@
         <v>45170.0</v>
       </c>
       <c r="B83" t="n">
-        <v>3115.575912167789</v>
+        <v>3117.6433507520383</v>
       </c>
     </row>
     <row r="84">
@@ -736,7 +736,7 @@
         <v>45200.0</v>
       </c>
       <c r="B84" t="n">
-        <v>3338.2702136964417</v>
+        <v>3340.0356950804903</v>
       </c>
     </row>
     <row r="85">
@@ -744,7 +744,7 @@
         <v>45231.0</v>
       </c>
       <c r="B85" t="n">
-        <v>3401.4636861126955</v>
+        <v>3403.339107004854</v>
       </c>
     </row>
     <row r="86">
@@ -752,7 +752,7 @@
         <v>45261.0</v>
       </c>
       <c r="B86" t="n">
-        <v>3556.118421437955</v>
+        <v>3557.597020160324</v>
       </c>
     </row>
     <row r="87">
@@ -760,7 +760,7 @@
         <v>45292.0</v>
       </c>
       <c r="B87" t="n">
-        <v>3718.2512676985093</v>
+        <v>3717.0725098904777</v>
       </c>
     </row>
     <row r="88">
@@ -768,7 +768,7 @@
         <v>45323.0</v>
       </c>
       <c r="B88" t="n">
-        <v>3959.8744552581775</v>
+        <v>3957.330242427396</v>
       </c>
     </row>
     <row r="89">
@@ -776,7 +776,7 @@
         <v>45352.0</v>
       </c>
       <c r="B89" t="n">
-        <v>4188.572423241379</v>
+        <v>4179.702459681671</v>
       </c>
     </row>
     <row r="90">
@@ -784,7 +784,7 @@
         <v>45383.0</v>
       </c>
       <c r="B90" t="n">
-        <v>4297.364548395704</v>
+        <v>4283.470497441352</v>
       </c>
     </row>
     <row r="91">
@@ -792,7 +792,7 @@
         <v>45413.0</v>
       </c>
       <c r="B91" t="n">
-        <v>4364.409696462419</v>
+        <v>4363.898907728469</v>
       </c>
     </row>
     <row r="92">
@@ -800,7 +800,7 @@
         <v>45444.0</v>
       </c>
       <c r="B92" t="n">
-        <v>4337.161344721526</v>
+        <v>4343.768407552656</v>
       </c>
     </row>
     <row r="93">
@@ -808,7 +808,7 @@
         <v>45474.0</v>
       </c>
       <c r="B93" t="n">
-        <v>4399.894637550767</v>
+        <v>4405.231858112113</v>
       </c>
     </row>
     <row r="94">
@@ -816,7 +816,7 @@
         <v>45505.0</v>
       </c>
       <c r="B94" t="n">
-        <v>4442.592990443122</v>
+        <v>4448.963740304615</v>
       </c>
     </row>
     <row r="95">
@@ -824,7 +824,7 @@
         <v>45536.0</v>
       </c>
       <c r="B95" t="n">
-        <v>4674.96504988698</v>
+        <v>4678.23271724387</v>
       </c>
     </row>
     <row r="96">
@@ -832,7 +832,7 @@
         <v>45566.0</v>
       </c>
       <c r="B96" t="n">
-        <v>4694.808579708797</v>
+        <v>4697.571906073679</v>
       </c>
     </row>
     <row r="97">
@@ -840,7 +840,7 @@
         <v>45597.0</v>
       </c>
       <c r="B97" t="n">
-        <v>4897.964524891452</v>
+        <v>4899.70999768067</v>
       </c>
     </row>
     <row r="98">
@@ -848,7 +848,7 @@
         <v>45627.0</v>
       </c>
       <c r="B98" t="n">
-        <v>5017.686711557166</v>
+        <v>5018.107100881571</v>
       </c>
     </row>
     <row r="99">
@@ -856,7 +856,7 @@
         <v>45658.0</v>
       </c>
       <c r="B99" t="n">
-        <v>5082.692393975764</v>
+        <v>5079.923086144074</v>
       </c>
     </row>
     <row r="100">
@@ -864,7 +864,7 @@
         <v>45689.0</v>
       </c>
       <c r="B100" t="n">
-        <v>5079.533705523983</v>
+        <v>5079.419327981292</v>
       </c>
     </row>
     <row r="101">
@@ -872,7 +872,7 @@
         <v>45717.0</v>
       </c>
       <c r="B101" t="n">
-        <v>5166.197062071272</v>
+        <v>5171.506179836195</v>
       </c>
     </row>
     <row r="102">
@@ -880,7 +880,7 @@
         <v>45748.0</v>
       </c>
       <c r="B102" t="n">
-        <v>5239.166532600722</v>
+        <v>5261.548496028056</v>
       </c>
     </row>
     <row r="103">
@@ -888,7 +888,15 @@
         <v>45778.0</v>
       </c>
       <c r="B103" t="n">
-        <v>5374.17529269553</v>
+        <v>5346.156444235623</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="1" t="n">
+        <v>45809.0</v>
+      </c>
+      <c r="B104" t="n">
+        <v>5541.487664257584</v>
       </c>
     </row>
   </sheetData>

--- a/diğerişlenmemişma.xlsx
+++ b/diğerişlenmemişma.xlsx
@@ -80,7 +80,7 @@
         <v>42705.0</v>
       </c>
       <c r="B2" t="n">
-        <v>381.70748089907977</v>
+        <v>381.6907744762235</v>
       </c>
     </row>
     <row r="3">
@@ -88,7 +88,7 @@
         <v>42736.0</v>
       </c>
       <c r="B3" t="n">
-        <v>381.62638963044134</v>
+        <v>381.6310364060228</v>
       </c>
     </row>
     <row r="4">
@@ -96,7 +96,7 @@
         <v>42767.0</v>
       </c>
       <c r="B4" t="n">
-        <v>385.3250715023618</v>
+        <v>385.3273253080037</v>
       </c>
     </row>
     <row r="5">
@@ -104,7 +104,7 @@
         <v>42795.0</v>
       </c>
       <c r="B5" t="n">
-        <v>383.93515560081664</v>
+        <v>383.96088847329764</v>
       </c>
     </row>
     <row r="6">
@@ -112,7 +112,7 @@
         <v>42826.0</v>
       </c>
       <c r="B6" t="n">
-        <v>383.03002098789085</v>
+        <v>383.0712142548619</v>
       </c>
     </row>
     <row r="7">
@@ -120,7 +120,7 @@
         <v>42856.0</v>
       </c>
       <c r="B7" t="n">
-        <v>388.04516480827004</v>
+        <v>388.0576629018871</v>
       </c>
     </row>
     <row r="8">
@@ -128,7 +128,7 @@
         <v>42887.0</v>
       </c>
       <c r="B8" t="n">
-        <v>395.5880839059787</v>
+        <v>395.58236594211</v>
       </c>
     </row>
     <row r="9">
@@ -136,7 +136,7 @@
         <v>42917.0</v>
       </c>
       <c r="B9" t="n">
-        <v>401.0994699041488</v>
+        <v>401.09968297504867</v>
       </c>
     </row>
     <row r="10">
@@ -144,7 +144,7 @@
         <v>42948.0</v>
       </c>
       <c r="B10" t="n">
-        <v>410.42378723534677</v>
+        <v>410.40467648531</v>
       </c>
     </row>
     <row r="11">
@@ -152,7 +152,7 @@
         <v>42979.0</v>
       </c>
       <c r="B11" t="n">
-        <v>411.0811181669306</v>
+        <v>411.0603014365718</v>
       </c>
     </row>
     <row r="12">
@@ -160,7 +160,7 @@
         <v>43009.0</v>
       </c>
       <c r="B12" t="n">
-        <v>410.4016111296566</v>
+        <v>410.381170093605</v>
       </c>
     </row>
     <row r="13">
@@ -168,7 +168,7 @@
         <v>43040.0</v>
       </c>
       <c r="B13" t="n">
-        <v>414.025058464653</v>
+        <v>414.00691061543364</v>
       </c>
     </row>
     <row r="14">
@@ -176,7 +176,7 @@
         <v>43070.0</v>
       </c>
       <c r="B14" t="n">
-        <v>417.28235559977014</v>
+        <v>417.26526898826575</v>
       </c>
     </row>
     <row r="15">
@@ -184,7 +184,7 @@
         <v>43101.0</v>
       </c>
       <c r="B15" t="n">
-        <v>415.25803459509626</v>
+        <v>415.26231659689887</v>
       </c>
     </row>
     <row r="16">
@@ -192,7 +192,7 @@
         <v>43132.0</v>
       </c>
       <c r="B16" t="n">
-        <v>419.8229012765431</v>
+        <v>419.8253305659209</v>
       </c>
     </row>
     <row r="17">
@@ -200,7 +200,7 @@
         <v>43160.0</v>
       </c>
       <c r="B17" t="n">
-        <v>424.08221848077324</v>
+        <v>424.10836771404274</v>
       </c>
     </row>
     <row r="18">
@@ -208,7 +208,7 @@
         <v>43191.0</v>
       </c>
       <c r="B18" t="n">
-        <v>419.8521392983259</v>
+        <v>419.8911627512136</v>
       </c>
     </row>
     <row r="19">
@@ -216,7 +216,7 @@
         <v>43221.0</v>
       </c>
       <c r="B19" t="n">
-        <v>434.0084754813789</v>
+        <v>434.0171121492012</v>
       </c>
     </row>
     <row r="20">
@@ -224,7 +224,7 @@
         <v>43252.0</v>
       </c>
       <c r="B20" t="n">
-        <v>465.517541685859</v>
+        <v>465.5126323228091</v>
       </c>
     </row>
     <row r="21">
@@ -232,7 +232,7 @@
         <v>43282.0</v>
       </c>
       <c r="B21" t="n">
-        <v>470.28864628969785</v>
+        <v>470.29351481304377</v>
       </c>
     </row>
     <row r="22">
@@ -240,7 +240,7 @@
         <v>43313.0</v>
       </c>
       <c r="B22" t="n">
-        <v>483.6465649065131</v>
+        <v>483.63526986647247</v>
       </c>
     </row>
     <row r="23">
@@ -248,7 +248,7 @@
         <v>43344.0</v>
       </c>
       <c r="B23" t="n">
-        <v>504.3000504143854</v>
+        <v>504.2843468218011</v>
       </c>
     </row>
     <row r="24">
@@ -256,7 +256,7 @@
         <v>43374.0</v>
       </c>
       <c r="B24" t="n">
-        <v>519.0459950146853</v>
+        <v>519.0259193766724</v>
       </c>
     </row>
     <row r="25">
@@ -264,7 +264,7 @@
         <v>43405.0</v>
       </c>
       <c r="B25" t="n">
-        <v>518.9830090532159</v>
+        <v>518.9647799765268</v>
       </c>
     </row>
     <row r="26">
@@ -272,7 +272,7 @@
         <v>43435.0</v>
       </c>
       <c r="B26" t="n">
-        <v>521.3377116863234</v>
+        <v>521.3177108113324</v>
       </c>
     </row>
     <row r="27">
@@ -280,7 +280,7 @@
         <v>43466.0</v>
       </c>
       <c r="B27" t="n">
-        <v>526.804793310285</v>
+        <v>526.8019928696749</v>
       </c>
     </row>
     <row r="28">
@@ -288,7 +288,7 @@
         <v>43497.0</v>
       </c>
       <c r="B28" t="n">
-        <v>532.2552556216838</v>
+        <v>532.2495391517306</v>
       </c>
     </row>
     <row r="29">
@@ -296,7 +296,7 @@
         <v>43525.0</v>
       </c>
       <c r="B29" t="n">
-        <v>527.8017999773999</v>
+        <v>527.8190351121395</v>
       </c>
     </row>
     <row r="30">
@@ -304,7 +304,7 @@
         <v>43556.0</v>
       </c>
       <c r="B30" t="n">
-        <v>544.2020472239892</v>
+        <v>544.2215793033579</v>
       </c>
     </row>
     <row r="31">
@@ -312,7 +312,7 @@
         <v>43586.0</v>
       </c>
       <c r="B31" t="n">
-        <v>556.2659886476234</v>
+        <v>556.252746869556</v>
       </c>
     </row>
     <row r="32">
@@ -320,7 +320,7 @@
         <v>43617.0</v>
       </c>
       <c r="B32" t="n">
-        <v>547.3295151993516</v>
+        <v>547.3288519651926</v>
       </c>
     </row>
     <row r="33">
@@ -328,7 +328,7 @@
         <v>43647.0</v>
       </c>
       <c r="B33" t="n">
-        <v>549.7945570083835</v>
+        <v>549.8074958100701</v>
       </c>
     </row>
     <row r="34">
@@ -336,7 +336,7 @@
         <v>43678.0</v>
       </c>
       <c r="B34" t="n">
-        <v>547.7239866432682</v>
+        <v>547.727819653563</v>
       </c>
     </row>
     <row r="35">
@@ -344,7 +344,7 @@
         <v>43709.0</v>
       </c>
       <c r="B35" t="n">
-        <v>545.7688263561566</v>
+        <v>545.7762009249342</v>
       </c>
     </row>
     <row r="36">
@@ -352,7 +352,7 @@
         <v>43739.0</v>
       </c>
       <c r="B36" t="n">
-        <v>546.9222770589537</v>
+        <v>546.9245728036972</v>
       </c>
     </row>
     <row r="37">
@@ -360,7 +360,7 @@
         <v>43770.0</v>
       </c>
       <c r="B37" t="n">
-        <v>550.4374274334988</v>
+        <v>550.4324528580084</v>
       </c>
     </row>
     <row r="38">
@@ -368,7 +368,7 @@
         <v>43800.0</v>
       </c>
       <c r="B38" t="n">
-        <v>563.3311483370278</v>
+        <v>563.3160909522129</v>
       </c>
     </row>
     <row r="39">
@@ -376,7 +376,7 @@
         <v>43831.0</v>
       </c>
       <c r="B39" t="n">
-        <v>566.6655053514394</v>
+        <v>566.6568125395683</v>
       </c>
     </row>
     <row r="40">
@@ -384,7 +384,7 @@
         <v>43862.0</v>
       </c>
       <c r="B40" t="n">
-        <v>578.0070633739872</v>
+        <v>577.9931811293392</v>
       </c>
     </row>
     <row r="41">
@@ -392,7 +392,7 @@
         <v>43891.0</v>
       </c>
       <c r="B41" t="n">
-        <v>588.178594016077</v>
+        <v>588.1761742375126</v>
       </c>
     </row>
     <row r="42">
@@ -400,7 +400,7 @@
         <v>43922.0</v>
       </c>
       <c r="B42" t="n">
-        <v>601.3314589868438</v>
+        <v>601.3232515070745</v>
       </c>
     </row>
     <row r="43">
@@ -408,7 +408,7 @@
         <v>43952.0</v>
       </c>
       <c r="B43" t="n">
-        <v>608.8519016768777</v>
+        <v>608.820695172262</v>
       </c>
     </row>
     <row r="44">
@@ -416,7 +416,7 @@
         <v>43983.0</v>
       </c>
       <c r="B44" t="n">
-        <v>604.3591605286342</v>
+        <v>604.3665140650787</v>
       </c>
     </row>
     <row r="45">
@@ -424,7 +424,7 @@
         <v>44013.0</v>
       </c>
       <c r="B45" t="n">
-        <v>615.073939907704</v>
+        <v>615.0967703289003</v>
       </c>
     </row>
     <row r="46">
@@ -432,7 +432,7 @@
         <v>44044.0</v>
       </c>
       <c r="B46" t="n">
-        <v>623.5647693916868</v>
+        <v>623.5839488590351</v>
       </c>
     </row>
     <row r="47">
@@ -440,7 +440,7 @@
         <v>44075.0</v>
       </c>
       <c r="B47" t="n">
-        <v>626.9959456229045</v>
+        <v>627.0237514840852</v>
       </c>
     </row>
     <row r="48">
@@ -448,7 +448,7 @@
         <v>44105.0</v>
       </c>
       <c r="B48" t="n">
-        <v>645.5815831715855</v>
+        <v>645.6018215064115</v>
       </c>
     </row>
     <row r="49">
@@ -456,7 +456,7 @@
         <v>44136.0</v>
       </c>
       <c r="B49" t="n">
-        <v>675.4332566117118</v>
+        <v>675.4346545881044</v>
       </c>
     </row>
     <row r="50">
@@ -464,7 +464,7 @@
         <v>44166.0</v>
       </c>
       <c r="B50" t="n">
-        <v>690.1419896205466</v>
+        <v>690.1279171925498</v>
       </c>
     </row>
     <row r="51">
@@ -472,7 +472,7 @@
         <v>44197.0</v>
       </c>
       <c r="B51" t="n">
-        <v>695.4758793271596</v>
+        <v>695.4530653056044</v>
       </c>
     </row>
     <row r="52">
@@ -480,7 +480,7 @@
         <v>44228.0</v>
       </c>
       <c r="B52" t="n">
-        <v>707.0316721602018</v>
+        <v>707.0052033940739</v>
       </c>
     </row>
     <row r="53">
@@ -488,7 +488,7 @@
         <v>44256.0</v>
       </c>
       <c r="B53" t="n">
-        <v>703.4579816255781</v>
+        <v>703.4307841582417</v>
       </c>
     </row>
     <row r="54">
@@ -496,7 +496,7 @@
         <v>44287.0</v>
       </c>
       <c r="B54" t="n">
-        <v>690.7521544672709</v>
+        <v>690.7142395315115</v>
       </c>
     </row>
     <row r="55">
@@ -504,7 +504,7 @@
         <v>44317.0</v>
       </c>
       <c r="B55" t="n">
-        <v>713.2700316038812</v>
+        <v>713.2197017381674</v>
       </c>
     </row>
     <row r="56">
@@ -512,7 +512,7 @@
         <v>44348.0</v>
       </c>
       <c r="B56" t="n">
-        <v>746.523294578299</v>
+        <v>746.538536679215</v>
       </c>
     </row>
     <row r="57">
@@ -520,7 +520,7 @@
         <v>44378.0</v>
       </c>
       <c r="B57" t="n">
-        <v>772.2705626320314</v>
+        <v>772.3094300114107</v>
       </c>
     </row>
     <row r="58">
@@ -528,7 +528,7 @@
         <v>44409.0</v>
       </c>
       <c r="B58" t="n">
-        <v>802.8179330227791</v>
+        <v>802.8604317885035</v>
       </c>
     </row>
     <row r="59">
@@ -536,7 +536,7 @@
         <v>44440.0</v>
       </c>
       <c r="B59" t="n">
-        <v>825.0248713553875</v>
+        <v>825.0787514039722</v>
       </c>
     </row>
     <row r="60">
@@ -544,7 +544,7 @@
         <v>44470.0</v>
       </c>
       <c r="B60" t="n">
-        <v>844.7403413492133</v>
+        <v>844.7890486370118</v>
       </c>
     </row>
     <row r="61">
@@ -552,7 +552,7 @@
         <v>44501.0</v>
       </c>
       <c r="B61" t="n">
-        <v>888.8819598990342</v>
+        <v>888.9145424981359</v>
       </c>
     </row>
     <row r="62">
@@ -560,7 +560,7 @@
         <v>44531.0</v>
       </c>
       <c r="B62" t="n">
-        <v>1053.9827850583588</v>
+        <v>1053.9987559444394</v>
       </c>
     </row>
     <row r="63">
@@ -568,7 +568,7 @@
         <v>44562.0</v>
       </c>
       <c r="B63" t="n">
-        <v>1116.9129089393973</v>
+        <v>1116.8811021698943</v>
       </c>
     </row>
     <row r="64">
@@ -576,7 +576,7 @@
         <v>44593.0</v>
       </c>
       <c r="B64" t="n">
-        <v>1145.148077807626</v>
+        <v>1145.1095743412588</v>
       </c>
     </row>
     <row r="65">
@@ -584,7 +584,7 @@
         <v>44621.0</v>
       </c>
       <c r="B65" t="n">
-        <v>1219.230582744379</v>
+        <v>1219.13628420875</v>
       </c>
     </row>
     <row r="66">
@@ -592,7 +592,7 @@
         <v>44652.0</v>
       </c>
       <c r="B66" t="n">
-        <v>1348.0882106053461</v>
+        <v>1347.9171284355054</v>
       </c>
     </row>
     <row r="67">
@@ -600,7 +600,7 @@
         <v>44682.0</v>
       </c>
       <c r="B67" t="n">
-        <v>1410.9363788167507</v>
+        <v>1410.7691926111738</v>
       </c>
     </row>
     <row r="68">
@@ -608,7 +608,7 @@
         <v>44713.0</v>
       </c>
       <c r="B68" t="n">
-        <v>1479.2926674964065</v>
+        <v>1479.323262007664</v>
       </c>
     </row>
     <row r="69">
@@ -616,7 +616,7 @@
         <v>44743.0</v>
       </c>
       <c r="B69" t="n">
-        <v>1527.7639719021643</v>
+        <v>1527.8563551046825</v>
       </c>
     </row>
     <row r="70">
@@ -624,7 +624,7 @@
         <v>44774.0</v>
       </c>
       <c r="B70" t="n">
-        <v>1570.0446224688963</v>
+        <v>1570.162186894494</v>
       </c>
     </row>
     <row r="71">
@@ -632,7 +632,7 @@
         <v>44805.0</v>
       </c>
       <c r="B71" t="n">
-        <v>1608.8155423000924</v>
+        <v>1608.9355836118252</v>
       </c>
     </row>
     <row r="72">
@@ -640,7 +640,7 @@
         <v>44835.0</v>
       </c>
       <c r="B72" t="n">
-        <v>1686.0716617047678</v>
+        <v>1686.1764390486069</v>
       </c>
     </row>
     <row r="73">
@@ -648,7 +648,7 @@
         <v>44866.0</v>
       </c>
       <c r="B73" t="n">
-        <v>1741.9265903106993</v>
+        <v>1742.0260268895029</v>
       </c>
     </row>
     <row r="74">
@@ -656,7 +656,7 @@
         <v>44896.0</v>
       </c>
       <c r="B74" t="n">
-        <v>1803.3612301236055</v>
+        <v>1803.4379963061906</v>
       </c>
     </row>
     <row r="75">
@@ -664,7 +664,7 @@
         <v>44927.0</v>
       </c>
       <c r="B75" t="n">
-        <v>1961.9058067619965</v>
+        <v>1961.862144696594</v>
       </c>
     </row>
     <row r="76">
@@ -672,7 +672,7 @@
         <v>44958.0</v>
       </c>
       <c r="B76" t="n">
-        <v>2095.020682805847</v>
+        <v>2094.927344058144</v>
       </c>
     </row>
     <row r="77">
@@ -680,7 +680,7 @@
         <v>44986.0</v>
       </c>
       <c r="B77" t="n">
-        <v>2263.933526169493</v>
+        <v>2263.6648121529533</v>
       </c>
     </row>
     <row r="78">
@@ -688,7 +688,7 @@
         <v>45017.0</v>
       </c>
       <c r="B78" t="n">
-        <v>2408.666851046571</v>
+        <v>2408.265354195051</v>
       </c>
     </row>
     <row r="79">
@@ -696,7 +696,7 @@
         <v>45047.0</v>
       </c>
       <c r="B79" t="n">
-        <v>2498.4733020649655</v>
+        <v>2498.141230872799</v>
       </c>
     </row>
     <row r="80">
@@ -704,7 +704,7 @@
         <v>45078.0</v>
       </c>
       <c r="B80" t="n">
-        <v>2606.849577351669</v>
+        <v>2607.0089401678624</v>
       </c>
     </row>
     <row r="81">
@@ -712,7 +712,7 @@
         <v>45108.0</v>
       </c>
       <c r="B81" t="n">
-        <v>2787.570666927121</v>
+        <v>2787.8548463153556</v>
       </c>
     </row>
     <row r="82">
@@ -720,7 +720,7 @@
         <v>45139.0</v>
       </c>
       <c r="B82" t="n">
-        <v>2959.3483410509793</v>
+        <v>2959.6748296481796</v>
       </c>
     </row>
     <row r="83">
@@ -728,7 +728,7 @@
         <v>45170.0</v>
       </c>
       <c r="B83" t="n">
-        <v>3117.6433507520383</v>
+        <v>3117.8757648109645</v>
       </c>
     </row>
     <row r="84">
@@ -736,7 +736,7 @@
         <v>45200.0</v>
       </c>
       <c r="B84" t="n">
-        <v>3340.0356950804903</v>
+        <v>3340.214760191202</v>
       </c>
     </row>
     <row r="85">
@@ -744,7 +744,7 @@
         <v>45231.0</v>
       </c>
       <c r="B85" t="n">
-        <v>3403.339107004854</v>
+        <v>3403.4897567736966</v>
       </c>
     </row>
     <row r="86">
@@ -752,7 +752,7 @@
         <v>45261.0</v>
       </c>
       <c r="B86" t="n">
-        <v>3557.597020160324</v>
+        <v>3557.6826239627485</v>
       </c>
     </row>
     <row r="87">
@@ -760,7 +760,7 @@
         <v>45292.0</v>
       </c>
       <c r="B87" t="n">
-        <v>3717.0725098904777</v>
+        <v>3716.9214769514606</v>
       </c>
     </row>
     <row r="88">
@@ -768,7 +768,7 @@
         <v>45323.0</v>
       </c>
       <c r="B88" t="n">
-        <v>3957.330242427396</v>
+        <v>3957.0586792434306</v>
       </c>
     </row>
     <row r="89">
@@ -776,7 +776,7 @@
         <v>45352.0</v>
       </c>
       <c r="B89" t="n">
-        <v>4179.702459681671</v>
+        <v>4179.04973242424</v>
       </c>
     </row>
     <row r="90">
@@ -784,7 +784,7 @@
         <v>45383.0</v>
       </c>
       <c r="B90" t="n">
-        <v>4283.470497441352</v>
+        <v>4282.639445160951</v>
       </c>
     </row>
     <row r="91">
@@ -792,7 +792,7 @@
         <v>45413.0</v>
       </c>
       <c r="B91" t="n">
-        <v>4363.898907728469</v>
+        <v>4363.241082593464</v>
       </c>
     </row>
     <row r="92">
@@ -800,7 +800,7 @@
         <v>45444.0</v>
       </c>
       <c r="B92" t="n">
-        <v>4343.768407552656</v>
+        <v>4344.193767773167</v>
       </c>
     </row>
     <row r="93">
@@ -808,7 +808,7 @@
         <v>45474.0</v>
       </c>
       <c r="B93" t="n">
-        <v>4405.231858112113</v>
+        <v>4405.899071085215</v>
       </c>
     </row>
     <row r="94">
@@ -816,7 +816,7 @@
         <v>45505.0</v>
       </c>
       <c r="B94" t="n">
-        <v>4448.963740304615</v>
+        <v>4449.65030694931</v>
       </c>
     </row>
     <row r="95">
@@ -824,7 +824,7 @@
         <v>45536.0</v>
       </c>
       <c r="B95" t="n">
-        <v>4678.23271724387</v>
+        <v>4678.634254454176</v>
       </c>
     </row>
     <row r="96">
@@ -832,7 +832,7 @@
         <v>45566.0</v>
       </c>
       <c r="B96" t="n">
-        <v>4697.571906073679</v>
+        <v>4697.870333122612</v>
       </c>
     </row>
     <row r="97">
@@ -840,7 +840,7 @@
         <v>45597.0</v>
       </c>
       <c r="B97" t="n">
-        <v>4899.70999768067</v>
+        <v>4899.862269304148</v>
       </c>
     </row>
     <row r="98">
@@ -848,7 +848,7 @@
         <v>45627.0</v>
       </c>
       <c r="B98" t="n">
-        <v>5018.107100881571</v>
+        <v>5018.089603016743</v>
       </c>
     </row>
     <row r="99">
@@ -856,7 +856,7 @@
         <v>45658.0</v>
       </c>
       <c r="B99" t="n">
-        <v>5079.923086144074</v>
+        <v>5079.6009920118095</v>
       </c>
     </row>
     <row r="100">
@@ -864,7 +864,7 @@
         <v>45689.0</v>
       </c>
       <c r="B100" t="n">
-        <v>5079.419327981292</v>
+        <v>5079.004114404087</v>
       </c>
     </row>
     <row r="101">
@@ -872,7 +872,7 @@
         <v>45717.0</v>
       </c>
       <c r="B101" t="n">
-        <v>5171.506179836195</v>
+        <v>5170.635725483441</v>
       </c>
     </row>
     <row r="102">
@@ -880,7 +880,7 @@
         <v>45748.0</v>
       </c>
       <c r="B102" t="n">
-        <v>5261.548496028056</v>
+        <v>5260.472123436332</v>
       </c>
     </row>
     <row r="103">
@@ -888,7 +888,7 @@
         <v>45778.0</v>
       </c>
       <c r="B103" t="n">
-        <v>5346.156444235623</v>
+        <v>5345.29760032178</v>
       </c>
     </row>
     <row r="104">
@@ -896,7 +896,7 @@
         <v>45809.0</v>
       </c>
       <c r="B104" t="n">
-        <v>5541.487664257584</v>
+        <v>5536.037971140087</v>
       </c>
     </row>
   </sheetData>
